--- a/Document/Docker/Docker_Setup.xlsx
+++ b/Document/Docker/Docker_Setup.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="1320" windowWidth="24180" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>环境要求</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,10 +253,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">       # </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">    # 假如当前用户是emin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -270,6 +266,18 @@
   </si>
   <si>
     <t xml:space="preserve">       emin ALL=(ALL) ALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       # 运行成功后,会对应的产生一个容器(docker ps 查看),并且终端由原来的[root@local],变成[root@abcdef] // abcdef是一个id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       # 这时候的终端就相当于容器中的centos的终端,输入的命令也是针对容器中的centos,与外面的centos无关了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  7 以上</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -277,7 +285,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -331,6 +339,14 @@
       <color theme="1"/>
       <name val="Lantinghei TC Heavy"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -466,11 +482,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="115">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -959,10 +976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:B102"/>
+  <dimension ref="B5:B106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -989,8 +1006,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="2:2" ht="19">
+      <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1001,17 +1018,17 @@
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="2:2">
@@ -1026,7 +1043,7 @@
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="2:2">
@@ -1145,8 +1162,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="2" t="s">
+    <row r="49" spans="2:2" ht="19">
+      <c r="B49" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1290,9 +1307,19 @@
         <v>57</v>
       </c>
     </row>
-    <row r="102" spans="2:2">
-      <c r="B102" s="2" t="s">
-        <v>58</v>
+    <row r="103" spans="2:2">
+      <c r="B103" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Docker/Docker_Setup.xlsx
+++ b/Document/Docker/Docker_Setup.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="2440" yWindow="280" windowWidth="25520" windowHeight="15600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="4" r:id="rId1"/>
+    <sheet name="emin" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,19 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
-  <si>
-    <t>环境要求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.Centos6.x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.Docker-engine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>Docker引擎的下载与安装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,191 +82,631 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">     3.2 其它源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         sudo yum install https://get.docker.com/rpm/1.7.1/centos-7/RPMS/x86_64/docker-engine-1.7.1-1.el7.centos.x86_64.rpm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  4 验证docker引擎的安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    sudo docker -version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  1 启动docker服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  2 查看本地镜像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  3 查看容器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    # 通过对容器的修改,提交,生成一个在原镜像基础上的新镜像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    # 只有在运行(run)image的时候才会产生容器(container)，容器是image的一个实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         # 如果centos是7.x的版本，则采用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    # 在提示的标准输入中输入以下内容:(每一行一个回车就OK了)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       # 找到 Allow root to run any commands anywhere的行,添加如下代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    # 查看容器,可以获知容器的id,在对镜像进行更新(如安装了新的软件或更新了配置),commit的时候需要该id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Docker引擎使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  4 获取一个标准镜像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   # docker的命令需要管理员权限(执行命令需要sudo),可以将创建docker的用户,当然最简单的办法是采用root用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    # 应用程序根据需求,会依赖特定的环境。比如需要将应用部署在centos,抑或unbuto等,那么就获取相应的标准镜像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    # 我们需要做的,就是在这些标准的镜像上做修改,比如安装特定版本的JDK,Tomcat,Database等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    # 以下以应用部署在Centos6.x环境为例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.1 在docker hub上搜索镜像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   # 以下假定已经有sudo权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    service docker start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    docker images</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        # 以下是搜索部分结果,可以看到有一个官方的标准镜像,OK,就是它了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.1 拉取镜像到本地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        # pull的过程可能比较漫长(如果有,可以采用国内的镜像服务器)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        docker images</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  5 查看镜像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  6 运行镜像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       # 运行一个镜像会启动一个容器,该容器类似一个centos的虚拟机.我们希望进入该"虚拟机",输入命令,安装软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    # 假如当前用户是emin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    # 会报异常:"emin is not in sudoer file"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       emin ALL=(ALL) ALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       # 运行成功后,会对应的产生一个容器(docker ps 查看),并且终端由原来的[root@local],变成[root@abcdef] // abcdef是一个id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       # 这时候的终端就相当于容器中的centos的终端,输入的命令也是针对容器中的centos,与外面的centos无关了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         # 由于墙的原因,这种方式可能无法完成,或者出现No package available等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  8 提交我们的修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  7 以上,一个具有centos的环境,通过docker引擎跑起来了,接下来的事情就是按照不同的需求安装需要的软件,需要执行的命令跟原生centos系统是一样的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    # 提交的时候需要container的id,因为container可能有多个(可能运行多次运行了image,或者以前的一些副本)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      docker ps     // 在显示的container列表中复制contianer_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    # 在container中安装了软件,比如JDK 1.7等,如果想保存这个版本的镜像,以便复用,那么需要提交(commit)这些修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       #  在run的时候,也可以带入其它的参数,以实现不同的需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>docker ps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">     // 查看的是正在运行的容器</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>docker ps -a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  // 查看所有的容器</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>docker ps -l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  // 查看最近一次运行的容器</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>docker pull centos</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>docker run -i -t centos /bin/bash</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">docker run -i -t </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-v /home/emin/soft:/home/download</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> centos /bin/bash</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   #//如果container中不存在/home/download,则自动创建</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>docker commit container_id centos/jdk1_7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    // centos/jdk1_7 是这次提交之后的新的镜像的名称</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      # 以上执行完毕,通过docker images,应当能看到两个images，其中一个是原始的centos镜像,另外一个就是刚刚commit的镜像centos/jdk1_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    # 所以在复杂的情况下,运行了些image与有哪些container,得注意对应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          # 场景，我下载了一些软件安装包在/home/emin/soft目录下,运行镜像之后,我在container中怎样能使用这些安装包呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          # 解决办法:-v 参数:挂载本地目录到container中,相当于我插了个U盘进来,里面的资源就能随时访问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      exit          // 退出container</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  9 保存镜像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    # 镜像做好以后,可以保存下来存档,以便复用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      # centos/jdk1_7就是做好的镜像,/home/emin/docker/images 是本地的一个目录,centos_jdk1_7.tar就是镜像的tar格式文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>docker save centos/jdk1_7 &gt; /home/emin/docker/images/centos_jkd1_7.tar</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  10 导入镜像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     # 假设拷贝到了目标机器的 /home/document 下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>docker load &lt; /home/document/centos_jdk1_7.tar</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    Centos6.x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标系统环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     # 如果另外的机器想导入做好的centos/jdk1_7镜像,则可以把之前的centos_jdk1_7.tar 拷贝的目标机器,导入docker引擎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>service docker start</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    # 安装docker以及后续的使用需要sudo权限,如果登陆用户是非root用户,则需要以root身份将当前用户添加到root组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">     3.1 官方镜像</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">     3.2 其它源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">         sudo yum install https://get.docker.com/rpm/1.7.1/centos-7/RPMS/x86_64/docker-engine-1.7.1-1.el7.centos.x86_64.rpm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  4 验证docker引擎的安装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    sudo docker -version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  1 启动docker服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  2 查看本地镜像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  3 查看容器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    # 通过对容器的修改,提交,生成一个在原镜像基础上的新镜像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    # 只有在运行(run)image的时候才会产生容器(container)，容器是image的一个实例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">         # 由于墙的原因,这种方式可能无法完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">         # 如果centos是7.x的版本，则采用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    # 在提示的标准输入中输入以下内容:(每一行一个回车就OK了)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">       # 找到 Allow root to run any commands anywhere的行,添加如下代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    # 查看容器,可以获知容器的id,在对镜像进行更新(如安装了新的软件或更新了配置),commit的时候需要该id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Docker引擎使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  4 获取一个标准镜像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   # docker的命令需要管理员权限(执行命令需要sudo),可以将创建docker的用户,当然最简单的办法是采用root用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    # 应用程序根据需求,会依赖特定的环境。比如需要将应用部署在centos,抑或unbuto等,那么就获取相应的标准镜像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    # 我们需要做的,就是在这些标准的镜像上做修改,比如安装特定版本的JDK,Tomcat,Database等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    # 以下以应用部署在Centos6.x环境为例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    4.1 在docker hub上搜索镜像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   # 以下假定已经有sudo权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    service docker start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    docker images</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    docker ps     // 查看的是正在运行的容器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    docker ps -a  // 查看所有的容器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    docker ps -l  // 查看最近一次运行的容器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        docker search centos </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        # 以下是搜索部分结果,可以看到有一个官方的标准镜像,OK,就是它了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    4.1 拉取镜像到本地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        docker pull centos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        # pull的过程可能比较漫长(如果有,可以采用国内的镜像服务器)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        docker images</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  5 查看镜像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  6 运行镜像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">       docker run -i -t centos /bin/bash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">       # 运行一个镜像会启动一个容器,该容器类似一个centos的虚拟机.我们希望进入该"虚拟机",输入命令,安装软件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    # 假如当前用户是emin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    # 安装docker以及后续的使用需要root权限,如果登陆用户是非root用户,则需要以root身份将当前用户添加到root组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    # 会报异常:"emin is not in sudoer file"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">       emin ALL=(ALL) ALL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">       # 运行成功后,会对应的产生一个容器(docker ps 查看),并且终端由原来的[root@local],变成[root@abcdef] // abcdef是一个id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">       # 这时候的终端就相当于容器中的centos的终端,输入的命令也是针对容器中的centos,与外面的centos无关了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  7 以上</t>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>docker search centos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   // centos是镜像名,如果需要ubuntu,则docker search ubuntu,其它类似</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作步骤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  1 centos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  2 jdk 1.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  3 tomcat 8.x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  4 postgreSQL9.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  5 zooKeeper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  6 Dubbo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  1 启动docker引擎服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  2 运行镜像,暴露tomcat 和 zooKeeper的端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  3 进入container之后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.1 启动tomcat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      到tomcat的安装路劲的bin目录下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.2 到zooKeeper的安装路劲的bin目录下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>./startup.sh</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sudo docker service start</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sudo docker -i -t -p 9000:8080 -p 9100:2181 centos/eminEnv /bin/bash</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>./zkServer.sh start</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    # 外部机器访问zooKepper  主机ip:9100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    # 外部机器访问tomcat 主机ip:9000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    # 假设tomcat的端口采用默认的8080,则在run image的时候暴露一个可用的端口(如9000)映射到运行后的container中的8080端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    # 外部即可通过主机的ip和暴露的端口9000,访问容器的8080端口,即tomcat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜像centos/eminEnv 构成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -285,7 +714,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -347,6 +776,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF3366FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -365,7 +808,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="115">
+  <cellStyleXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -481,15 +924,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="115">
+  <cellStyles count="117">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -547,6 +993,7 @@
     <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -604,6 +1051,7 @@
     <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -617,13 +1065,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -976,10 +1424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:B106"/>
+  <dimension ref="B2:B140"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView showGridLines="0" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -991,59 +1439,74 @@
     <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:2">
-      <c r="B5" s="1" t="s">
+    <row r="2" spans="2:2" ht="19">
+      <c r="B2" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="19">
+      <c r="B5" s="4" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="5" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" ht="19">
-      <c r="B10" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="2" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="2" t="s">
-        <v>60</v>
+      <c r="B15" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="2" t="s">
-        <v>61</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="2:2">
@@ -1058,268 +1521,356 @@
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="2" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="2" t="s">
-        <v>15</v>
+    <row r="32" spans="2:2" ht="20">
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" ht="20">
-      <c r="B37" s="3"/>
+      <c r="B36" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="1"/>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="1"/>
+        <v>18</v>
+      </c>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="2" t="s">
-        <v>31</v>
+      <c r="B43" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" ht="19">
+      <c r="B45" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" ht="19">
+      <c r="B46" s="4"/>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" ht="19">
-      <c r="B49" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="2" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="2" t="s">
-        <v>42</v>
+      <c r="B51" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="2" t="s">
-        <v>43</v>
+      <c r="B54" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="2" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="2" t="s">
-        <v>28</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2">
-      <c r="B73" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="2:2">
-      <c r="B75" s="2" t="s">
+    <row r="84" spans="2:2">
+      <c r="B84" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="2:2">
-      <c r="B77" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2">
-      <c r="B79" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2">
-      <c r="B87" s="2" t="s">
+    <row r="86" spans="2:2">
+      <c r="B86" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="89" spans="2:2">
-      <c r="B89" s="2" t="s">
+    <row r="102" spans="2:2">
+      <c r="B102" s="2" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2">
-      <c r="B91" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2">
-      <c r="B93" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2">
-      <c r="B95" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2">
-      <c r="B97" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2">
-      <c r="B99" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2">
-      <c r="B101" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2">
-      <c r="B103" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="2" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1333,4 +1884,137 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:B40"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:2">
+      <c r="B4" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Document/Docker/Docker_Setup.xlsx
+++ b/Document/Docker/Docker_Setup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="280" windowWidth="25520" windowHeight="15600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="540" windowWidth="25520" windowHeight="15600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>Docker引擎的下载与安装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -578,7 +578,127 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  1 centos</t>
+    <t xml:space="preserve">  4 postgreSQL9.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  6 Dubbo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  1 启动docker引擎服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  2 运行镜像,暴露tomcat 和 zooKeeper的端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  3 进入container之后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.1 启动tomcat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      到tomcat的安装路劲的bin目录下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.2 到zooKeeper的安装路劲的bin目录下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>./startup.sh</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sudo docker service start</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sudo docker -i -t -p 9000:8080 -p 9100:2181 centos/eminEnv /bin/bash</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>./zkServer.sh start</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    # 外部机器访问zooKepper  主机ip:9100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    # 外部机器访问tomcat 主机ip:9000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    # 假设tomcat的端口采用默认的8080,则在run image的时候暴露一个可用的端口(如9000)映射到运行后的container中的8080端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    # 外部即可通过主机的ip和暴露的端口9000,访问容器的8080端口,即tomcat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜像centos/eminEnv 构成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  3 tomcat 8.0.36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  5 zooKeeper-3.4.8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -586,127 +706,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  3 tomcat 8.x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  4 postgreSQL9.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  5 zooKeeper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  6 Dubbo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  1 启动docker引擎服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  2 运行镜像,暴露tomcat 和 zooKeeper的端口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  3 进入container之后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.1 启动tomcat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      到tomcat的安装路劲的bin目录下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.2 到zooKeeper的安装路劲的bin目录下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>./startup.sh</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sudo docker service start</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sudo docker -i -t -p 9000:8080 -p 9100:2181 centos/eminEnv /bin/bash</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>./zkServer.sh start</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    # 外部机器访问zooKepper  主机ip:9100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    # 外部机器访问tomcat 主机ip:9000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    # 假设tomcat的端口采用默认的8080,则在run image的时候暴露一个可用的端口(如9000)映射到运行后的container中的8080端口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    # 外部即可通过主机的ip和暴露的端口9000,访问容器的8080端口,即tomcat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>镜像centos/eminEnv 构成</t>
+    <t xml:space="preserve">  1 centos官方编译基础环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  # 官方文档: https://docs.docker.com/engine/installation/linux/centos/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    # 其它程序,如zooKeeper(默认端口2181)配置类似</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1065,13 +1073,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1424,10 +1432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B140"/>
+  <dimension ref="B2:B142"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView showGridLines="0" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -1454,422 +1462,430 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="2:2" ht="19">
+      <c r="B6" s="4"/>
+    </row>
     <row r="7" spans="2:2">
       <c r="B7" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="5" t="s">
+    <row r="14" spans="2:2">
+      <c r="B14" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="2" t="s">
+    <row r="16" spans="2:2">
+      <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="5" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" s="5" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="2" t="s">
-        <v>27</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="2" t="s">
+    <row r="32" spans="2:2">
+      <c r="B32" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="5" t="s">
+    <row r="33" spans="2:2">
+      <c r="B33" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="20">
-      <c r="B32" s="3"/>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="2" t="s">
-        <v>52</v>
-      </c>
+    <row r="34" spans="2:2" ht="20">
+      <c r="B34" s="3"/>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="5" t="s">
+    <row r="38" spans="2:2">
+      <c r="B38" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="B39" s="1"/>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="2" t="s">
+    <row r="43" spans="2:2">
+      <c r="B43" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="5" t="s">
+    <row r="45" spans="2:2">
+      <c r="B45" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="2" t="s">
+    <row r="46" spans="2:2">
+      <c r="B46" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="19">
-      <c r="B45" s="4" t="s">
+    <row r="47" spans="2:2" ht="19">
+      <c r="B47" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="19">
-      <c r="B46" s="4"/>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="2" t="s">
+    <row r="48" spans="2:2" ht="19">
+      <c r="B48" s="4"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="2" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="5" t="s">
+    <row r="53" spans="2:2">
+      <c r="B53" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="2" t="s">
+    <row r="55" spans="2:2">
+      <c r="B55" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="5" t="s">
+    <row r="56" spans="2:2">
+      <c r="B56" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="2" t="s">
+    <row r="58" spans="2:2">
+      <c r="B58" s="2" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="2" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="2" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" s="2" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="2" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2">
-      <c r="B84" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" s="2" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" s="2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="117" spans="2:2">
-      <c r="B117" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="121" spans="2:2">
-      <c r="B121" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="132" spans="2:2">
       <c r="B132" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="2" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="137" spans="2:2">
-      <c r="B137" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="140" spans="2:2">
-      <c r="B140" s="2" t="s">
+    <row r="142" spans="2:2">
+      <c r="B142" s="2" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1888,7 +1904,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:B40"/>
+  <dimension ref="B4:B41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1899,37 +1915,37 @@
   <sheetData>
     <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="2" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="2" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="2:2">
@@ -1939,72 +1955,77 @@
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="2" t="s">
+    <row r="39" spans="2:2">
+      <c r="B39" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="2" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Docker/Docker_Setup.xlsx
+++ b/Document/Docker/Docker_Setup.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="540" windowWidth="25520" windowHeight="15600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="14500" yWindow="80" windowWidth="26080" windowHeight="17960" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="4" r:id="rId1"/>
-    <sheet name="emin" sheetId="5" r:id="rId2"/>
+    <sheet name="JDK安装" sheetId="6" r:id="rId2"/>
+    <sheet name="Tomcat安装" sheetId="7" r:id="rId3"/>
+    <sheet name="PostgreSQL安装" sheetId="8" r:id="rId4"/>
+    <sheet name="emin" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="368">
   <si>
     <t>Docker引擎的下载与安装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,10 +222,6 @@
   </si>
   <si>
     <t xml:space="preserve">       emin ALL=(ALL) ALL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">       # 运行成功后,会对应的产生一个容器(docker ps 查看),并且终端由原来的[root@local],变成[root@abcdef] // abcdef是一个id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -717,12 +716,1223 @@
     <t xml:space="preserve">    # 其它程序,如zooKeeper(默认端口2181)配置类似</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1 启动docker服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 到apache 官网下载apache-tomcat-8.0.36.tar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  假设下载的tar包在本地的路劲 /home/emin/download</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 启动docker服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 查找可用的jdk安装源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 选择1.7版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 运行image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  等着自动下载安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       # 运行成功后,会对应的产生一个容器(docker ps 查看),并且终端由原来的[root@local],变成[root@123abcdef] // 123abcdef是container的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 运行image,同时将tar包所在的目录挂载到container</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 解压tar文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  # tar -xzf apache-tomcat-8.0.36.gz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  # 如果是tar.gz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 移动解压后的apache-tomcat-8.0.36 到相应的目录,如/usr/local</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  # 因为资源包是宿主机器挂载进来的,解压之后应该移动到container自己文件系统中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>service docker start</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>docker run -i -t -v /home/emin/download:/home/soft centos /bin/bash</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tar -xf apache-tomcat-8.0.36.tar</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mv apache-tomcat-8.0.36 /usr/local/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 创建软链接,便于今后升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  cd /usr/local/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cd /home/soft/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ln -s apache-tomcat-8.0.36/ tomcat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  # tomcat指向的是apache-tomcat-8.0.36,如果今后升级到9以上的版本,则只需要将tomcat这个软连接执行新的版本即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>service docker start</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>docker run -i -t centos /bin/bash</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yum list java*</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yum -y install java-1.7.0-openjdk.x86_64</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>java -version</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  在container中启动tomcat,让宿主机器访问(如果需要让其它局域网内的机器访问,则需要在run的时候暴露端口),这里只需要验证tomcat的安装成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ifconfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  # 如果提示 ifconfig: command not found 说明原始镜像中还没有安装网络的工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  yum -y install net-tools</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ifconfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  # 在宿主机器重新开一个终端,互相ping通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  # 备注:如果是宿主机器是Mac,官方说由于osx的系统限制，不能够在osx中创建docker0虚拟网卡，也不能将ping的流量转发给容器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  cd /usr/local/bin/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ./startup.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  # 进入tomcat目录,启动tomcat服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  # container的ip一般类似172.17.0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  # 在宿主机器打开浏览器,输入 172.17.0.2:8080 ,显示熟悉的tomcat界面说明成功了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  # 如果要通过局域网内的其它机器访问,则需要在run image的时候暴露端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  # 通过宿主机器的 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ip:18080</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 来访问</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  # </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>docker run -i -t -p 18080:8080 &lt;iamge_name&gt; /bin/bash</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 到PostgreSQL官网下载tar资源包 postgresql-9.3.14.tar.gz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  # 所挂在的目录/home/emin/download 自动映射成container中的/home/soft 目录,如果container中没有该目录,则自动创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  # 并且,随时在宿主机器中往/home/emin/download 中添加文件,container 中的/home/soft下的资源也会刷新(它们是一致的)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2 docker的启动以及image的运行 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  见 Tomcat安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 解压tar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  tar -xzf postgresql-9.3.14.tar.gz </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  mv postgresql-9.3.14 /usr/local/ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 编译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  cd /usr/local/postgresql-9.3.14/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ./configure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  # 会报异常,是因为有一些依赖的包没有安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checking build system type... x86_64-unknown-linux-gnu</t>
+  </si>
+  <si>
+    <t>checking host system type... x86_64-unknown-linux-gnu</t>
+  </si>
+  <si>
+    <t>checking which template to use... linux</t>
+  </si>
+  <si>
+    <t>checking whether to build with 64-bit integer date/time support... yes</t>
+  </si>
+  <si>
+    <t>checking whether NLS is wanted... no</t>
+  </si>
+  <si>
+    <t>checking for default port number... 5432</t>
+  </si>
+  <si>
+    <t>checking for block size... 8kB</t>
+  </si>
+  <si>
+    <t>checking for segment size... 1GB</t>
+  </si>
+  <si>
+    <t>checking for WAL block size... 8kB</t>
+  </si>
+  <si>
+    <t>checking for WAL segment size... 16MB</t>
+  </si>
+  <si>
+    <t>checking for cc... no</t>
+  </si>
+  <si>
+    <t>configure: error: in `/usr/local/postgresql-9.3.14':</t>
+  </si>
+  <si>
+    <t>configure: error: no acceptable C compiler found in $PATH</t>
+  </si>
+  <si>
+    <t>See `config.log' for more details.</t>
+  </si>
+  <si>
+    <t>checking for gcc... no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   4.1 安装 gcc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       yum -y install gcc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    # 以下是第一次执行的时候报的异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">           # 以上则是 gcc 没有安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       #  继续执行编译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       ./configure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checking for library containing readline... no</t>
+  </si>
+  <si>
+    <t>configure: error: readline library not found</t>
+  </si>
+  <si>
+    <t>If you have readline already installed, see config.log for details on the</t>
+  </si>
+  <si>
+    <t>failure.  It is possible the compiler isn't looking in the proper directory.</t>
+  </si>
+  <si>
+    <t>Use --without-readline to disable readline support.</t>
+  </si>
+  <si>
+    <t>中间省略 n 多行信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          # 如果报如下错误,则需要简单依赖包readline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       rpm -qa | grep readling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       yum list readline*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          # 查看readline的资源包：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>readline.x86_64                                                                       6.2-9.el7                                                                 @CentOS</t>
+  </si>
+  <si>
+    <t>Available Packages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">readline.i686                                                                         6.2-9.el7                                                                 base   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">readline-devel.i686                                                                   6.2-9.el7                                                                 base   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">readline-static.i686                                                                  6.2-9.el7                                                                 base   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">readline-static.x86_64                                                                6.2-9.el7                                                                 base </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       # 或者 yum list installed | grep readline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># 输出 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>readline-6.2-9.el7.x86_64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 说明已经有 readline,可能还需要readline的其它包</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">readline-devel.x86_64     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                            6.2-9.el7                                                                 base   </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   4.2 安装 readline-devel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       yum -y install readline-devel.x86_64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       # 继续编译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         # 如果报如下错误,则说明还却少依赖包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checking for inflate in -lz... no</t>
+  </si>
+  <si>
+    <t>If you have zlib already installed, see config.log for details on the</t>
+  </si>
+  <si>
+    <t>Use --without-zlib to disable zlib support.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">configure: error: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zlib library not found</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   4.3 安装 zlib</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       yum list zlib*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zlib.x86_64                                                                        1.2.7-15.el7                                                                 @CentOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zlib.i686                                                                          1.2.7-15.el7                                                                 base   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">zlib-devel.i686                                                                    1.2.7-15.el7                                                                 base   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">zlib-devel.x86_64                                                                  1.2.7-15.el7                                                                 base   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">zlib-static.i686                                                                   1.2.7-15.el7                                                                 base   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">zlib-static.x86_64                                                                 1.2.7-15.el7                                                                 base  </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yum -y install zlib-devel.x86_64</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       # 这次没有报依赖包的异常了,其中最后几行信息是这样的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trict-aliasing -fwrapv -fexcess-precision=standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure: using CPPFLAGS= -D_GNU_SOURCE </t>
+  </si>
+  <si>
+    <t>configure: using LDFLAGS=  -Wl,--as-needed</t>
+  </si>
+  <si>
+    <t>configure: creating ./config.status</t>
+  </si>
+  <si>
+    <t>config.status: creating GNUmakefile</t>
+  </si>
+  <si>
+    <t>config.status: creating src/Makefile.global</t>
+  </si>
+  <si>
+    <t>config.status: creating src/include/pg_config.h</t>
+  </si>
+  <si>
+    <t>config.status: creating src/include/pg_config_ext.h</t>
+  </si>
+  <si>
+    <t>config.status: creating src/interfaces/ecpg/include/ecpg_config.h</t>
+  </si>
+  <si>
+    <t>config.status: linking src/backend/port/tas/dummy.s to src/backend/port/tas.s</t>
+  </si>
+  <si>
+    <t>config.status: linking src/backend/port/dynloader/linux.c to src/backend/port/dynloader.c</t>
+  </si>
+  <si>
+    <t>config.status: linking src/backend/port/sysv_sema.c to src/backend/port/pg_sema.c</t>
+  </si>
+  <si>
+    <t>config.status: linking src/backend/port/sysv_shmem.c to src/backend/port/pg_shmem.c</t>
+  </si>
+  <si>
+    <t>config.status: linking src/backend/port/unix_latch.c to src/backend/port/pg_latch.c</t>
+  </si>
+  <si>
+    <t>config.status: linking src/backend/port/dynloader/linux.h to src/include/dynloader.h</t>
+  </si>
+  <si>
+    <t>config.status: linking src/include/port/linux.h to src/include/pg_config_os.h</t>
+  </si>
+  <si>
+    <t>config.status: linking src/makefiles/Makefile.linux to src/Makefile.port</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   4.4 gmake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       #  如果提示 gmake: command not found </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       #  到 /usr/bin/ 看看有没有 make ,这个提示一般是不会存在 make 的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         yum -y install gcc automake autoconf libtool make</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       #  因为make 是gcc的一个指令,虽然我们之前安装过gcc,不过还需要安装这个(不同机器配置不一样的)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       # gamke 的过程有很多提示信息,最后几行是这样的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gmake[3]: Leaving directory `/usr/local/postgresql-9.3.14/contrib/dummy_seclabel'</t>
+  </si>
+  <si>
+    <t>cp ../../../contrib/dummy_seclabel/dummy_seclabel.so dummy_seclabel.so</t>
+  </si>
+  <si>
+    <t>gmake[2]: Leaving directory `/usr/local/postgresql-9.3.14/src/test/regress'</t>
+  </si>
+  <si>
+    <t>gmake[1]: Leaving directory `/usr/local/postgresql-9.3.14/src'</t>
+  </si>
+  <si>
+    <t>gmake -C config all</t>
+  </si>
+  <si>
+    <t>gmake[1]: Entering directory `/usr/local/postgresql-9.3.14/config'</t>
+  </si>
+  <si>
+    <t>gmake[1]: Nothing to be done for `all'.</t>
+  </si>
+  <si>
+    <t>gmake[1]: Leaving directory `/usr/local/postgresql-9.3.14/config'</t>
+  </si>
+  <si>
+    <t>All of PostgreSQL successfully made. Ready to install.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  4.5 gamke install</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      # 上一步提示说编译成功了,可以安装了(Ready to install)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      gmake install</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      # 成功最后的几行是这样的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gmake -C config install</t>
+  </si>
+  <si>
+    <t>/usr/bin/mkdir -p '/usr/local/pgsql/lib/pgxs/config'</t>
+  </si>
+  <si>
+    <t>/usr/bin/install -c -m 755 ./install-sh '/usr/local/pgsql/lib/pgxs/config/install-sh'</t>
+  </si>
+  <si>
+    <t>/usr/bin/install -c -m 755 ./missing '/usr/local/pgsql/lib/pgxs/config/missing'</t>
+  </si>
+  <si>
+    <t>PostgreSQL installation complete.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      cd /usr/local/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      ll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      # 应当能看到一个 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pgsql</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的文件夹</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 物理文件验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 数据库功能验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  6.1 查看postgreSQL版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      pgsql --version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      # 如果提示 psql: command not found,则需要配置相关的环境变量,相关命令都是在 pgsql/bin 里的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      # 因为用户是root,所以到root目录下,配置隐藏文件 .bash_profile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      # cat /root/.bash_profile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># .bash_profile</t>
+  </si>
+  <si>
+    <t># Get the aliases and functions</t>
+  </si>
+  <si>
+    <t>if [ -f ~/.bashrc ]; then</t>
+  </si>
+  <si>
+    <t>. ~/.bashrc</t>
+  </si>
+  <si>
+    <t>fi</t>
+  </si>
+  <si>
+    <t># User specific environment and startup programs</t>
+  </si>
+  <si>
+    <t>export PATH</t>
+  </si>
+  <si>
+    <t>PATH=$PATH:$HOME/bin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">       # 在PATH 的后面加上psql的bin 目录,即 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PATH=$PATH:$HOME/bin:/usr/local/pgsql/bin</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">       #  编辑完成,为了不退出当前终端并让其生效,则需要 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>source /root/.bash_profile</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       # 再次执行 psql --version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         # 输出: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">psql (PostgreSQL) 9.3.14 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,则表示已经成功，接下来可以通过命令的方式创建数据库等的了</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  6.2 新增postgres 用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      useradd postgres</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      # 这个 postgres 用户是专门用来操作数据库的,我们不需要这个物理用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      vi /etc/passwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        # 最后有一行 postgres:x:1000:1000::/home/postgres:/bin/bash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        # 修改为     postgres:x:1000:1000::/usr/local/bin:/bin/bash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      rm -r /home/postgres</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      # adduser postgres 不会创建物理目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  6.3 创建数据库目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      mkdir /usr/local/pgsql/data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      # 不过这个目录数据root用户,将起改为 postgres 这个用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drwxr-xr-x 2 root root 4096 Sep  2 09:04 bin</t>
+  </si>
+  <si>
+    <t>drwxr-xr-x 2 root root 4096 Sep  2 09:55 data</t>
+  </si>
+  <si>
+    <t>drwxr-xr-x 6 root root 4096 Sep  2 09:04 include</t>
+  </si>
+  <si>
+    <t>drwxr-xr-x 4 root root 4096 Sep  2 09:04 lib</t>
+  </si>
+  <si>
+    <t>drwxr-xr-x 6 root root 4096 Sep  2 09:04 share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      chown postgres:postgres /usr/local/pgsql/data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          # ll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drwxr-xr-x 2 root     root     4096 Sep  2 09:04 bin</t>
+  </si>
+  <si>
+    <t>drwxr-xr-x 2 postgres postgres 4096 Sep  2 09:55 data</t>
+  </si>
+  <si>
+    <t>drwxr-xr-x 6 root     root     4096 Sep  2 09:04 include</t>
+  </si>
+  <si>
+    <t>drwxr-xr-x 4 root     root     4096 Sep  2 09:04 lib</t>
+  </si>
+  <si>
+    <t>drwxr-xr-x 6 root     root     4096 Sep  2 09:04 share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6.4 初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      /usr/local/pgsql/bin/initdb -D /usr/local/pgsql/data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      # 切换到postgres用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      su - postgres</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      # 初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-bash-4.2$ /usr/local/pgsql/bin/initdb -D /usr/local/pgsql/data</t>
+  </si>
+  <si>
+    <t>The files belonging to this database system will be owned by user "postgres".</t>
+  </si>
+  <si>
+    <t>This user must also own the server process.</t>
+  </si>
+  <si>
+    <t>The database cluster will be initialized with locale "C".</t>
+  </si>
+  <si>
+    <t>The default database encoding has accordingly been set to "SQL_ASCII".</t>
+  </si>
+  <si>
+    <t>The default text search configuration will be set to "english".</t>
+  </si>
+  <si>
+    <t>Data page checksums are disabled.</t>
+  </si>
+  <si>
+    <t>fixing permissions on existing directory /usr/local/pgsql/data ... ok</t>
+  </si>
+  <si>
+    <t>creating subdirectories ... ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          # 成功执行,出现如下信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selecting default max_connections ... 100</t>
+  </si>
+  <si>
+    <t>selecting default shared_buffers ... 128MB</t>
+  </si>
+  <si>
+    <t>creating configuration files ... ok</t>
+  </si>
+  <si>
+    <t>creating template1 database in /usr/local/pgsql/data/base/1 ... ok</t>
+  </si>
+  <si>
+    <t>initializing pg_authid ... ok</t>
+  </si>
+  <si>
+    <t>initializing dependencies ... ok</t>
+  </si>
+  <si>
+    <t>creating system views ... ok</t>
+  </si>
+  <si>
+    <t>loading system objects' descriptions ... ok</t>
+  </si>
+  <si>
+    <t>creating collations ... ok</t>
+  </si>
+  <si>
+    <t>creating conversions ... ok</t>
+  </si>
+  <si>
+    <t>creating dictionaries ... ok</t>
+  </si>
+  <si>
+    <t>setting privileges on built-in objects ... ok</t>
+  </si>
+  <si>
+    <t>creating information schema ... ok</t>
+  </si>
+  <si>
+    <t>loading PL/pgSQL server-side language ... ok</t>
+  </si>
+  <si>
+    <t>vacuuming database template1 ... ok</t>
+  </si>
+  <si>
+    <t>copying template1 to template0 ... ok</t>
+  </si>
+  <si>
+    <t>copying template1 to postgres ... ok</t>
+  </si>
+  <si>
+    <t>syncing data to disk ... ok</t>
+  </si>
+  <si>
+    <t>WARNING: enabling "trust" authentication for local connections</t>
+  </si>
+  <si>
+    <t>You can change this by editing pg_hba.conf or using the option -A, or</t>
+  </si>
+  <si>
+    <t>--auth-local and --auth-host, the next time you run initdb.</t>
+  </si>
+  <si>
+    <t>Success. You can now start the database server using:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    /usr/local/pgsql/bin/postgres -D /usr/local/pgsql/data</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    /usr/local/pgsql/bin/pg_ctl -D /usr/local/pgsql/data -l logfile start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6.5 创建启动数据库脚本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      # 先退出postgres环境,回到root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      exit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      cd /usr/local/postgresql-9.3.14/contrib/start-scripts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-rw-r--r-- 1 1107 1107 1529 Aug  8 20:31 freebsd</t>
+  </si>
+  <si>
+    <t>-rw-r--r-- 1 1107 1107 3437 Aug  8 20:31 linux</t>
+  </si>
+  <si>
+    <t>drwxrwxrwx 2 1107 1107 4096 Aug  8 20:51 osx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           # ll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">           # ll /etc/init.d/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[root@129d63e58930 start-scripts]# ll /etc/init.d/</t>
+  </si>
+  <si>
+    <t>total 4</t>
+  </si>
+  <si>
+    <t>-rw-r--r-- 1 root root 1160 Jun 23 19:08 README</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      cp linux /etc/init.d/posgresql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      # 复制start-scripts/linux 脚本到 /etc/init.d 目录下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      chmod +x /etc/init.d/posgresql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      # 添加可执行权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -798,6 +2008,41 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF008000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3366FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -816,7 +2061,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="117">
+  <cellStyleXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -934,16 +2179,53 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="117">
+  <cellStyles count="151">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1002,6 +2284,23 @@
     <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1060,6 +2359,23 @@
     <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1099,6 +2415,92 @@
         <a:xfrm>
           <a:off x="1562100" y="16967200"/>
           <a:ext cx="9753600" cy="1270000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1016000" y="7124700"/>
+          <a:ext cx="7023100" cy="2387600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1320800" y="34264600"/>
+          <a:ext cx="7340600" cy="2540000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1434,8 +2836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B142"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView showGridLines="0" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="N105" sqref="N105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -1449,12 +2851,12 @@
   <sheetData>
     <row r="2" spans="2:2" ht="19">
       <c r="B2" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="19">
@@ -1467,7 +2869,7 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="2:2">
@@ -1477,7 +2879,7 @@
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="2:2">
@@ -1562,7 +2964,7 @@
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="2:2">
@@ -1575,7 +2977,7 @@
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="2:2">
@@ -1676,17 +3078,17 @@
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="2:2">
@@ -1721,7 +3123,7 @@
     </row>
     <row r="76" spans="2:2">
       <c r="B76" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78" spans="2:2">
@@ -1736,7 +3138,7 @@
     </row>
     <row r="88" spans="2:2">
       <c r="B88" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="90" spans="2:2">
@@ -1761,7 +3163,7 @@
     </row>
     <row r="98" spans="2:2">
       <c r="B98" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="100" spans="2:2">
@@ -1771,122 +3173,122 @@
     </row>
     <row r="102" spans="2:2">
       <c r="B102" s="2" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="132" spans="2:2">
       <c r="B132" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1904,28 +3306,1467 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:B41"/>
+  <dimension ref="B3:B20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
+    <row r="3" spans="2:2">
+      <c r="B3" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="1" t="s">
-        <v>102</v>
+      <c r="B4" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B70"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D334"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="C24" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="C25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="C26" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="C27" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="C28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="C29" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="C30" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="C31" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="C32" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="C33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="C34" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="C35" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="C36" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="C37" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="C38" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="C52" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="C53" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="C54" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="C55" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="C57" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="C59" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="C60" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="C61" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="C62" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="C63" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="C68" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="B70" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="B71" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="B73" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3">
+      <c r="B75" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3">
+      <c r="C77" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3">
+      <c r="C78" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3">
+      <c r="C79" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3">
+      <c r="C80" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3">
+      <c r="C81" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3">
+      <c r="C82" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3">
+      <c r="C83" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3">
+      <c r="B85" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3">
+      <c r="B87" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3">
+      <c r="B89" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3">
+      <c r="B90" s="6"/>
+    </row>
+    <row r="91" spans="2:3">
+      <c r="B91" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3">
+      <c r="C93" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3">
+      <c r="C94" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3">
+      <c r="C95" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3">
+      <c r="C96" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3">
+      <c r="C97" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3">
+      <c r="B99" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3">
+      <c r="B101" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3">
+      <c r="C103" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3">
+      <c r="C104" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3">
+      <c r="C105" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3">
+      <c r="C106" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3">
+      <c r="C107" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3">
+      <c r="C108" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3">
+      <c r="C109" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3">
+      <c r="B111" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3">
+      <c r="B113" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3">
+      <c r="B115" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3">
+      <c r="B117" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3">
+      <c r="C119" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3">
+      <c r="C120" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3">
+      <c r="C121" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3">
+      <c r="C122" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3">
+      <c r="C123" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3">
+      <c r="C124" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3">
+      <c r="C125" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3">
+      <c r="C126" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3">
+      <c r="C127" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3">
+      <c r="C128" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3">
+      <c r="C129" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3">
+      <c r="C130" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3">
+      <c r="C131" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3">
+      <c r="C132" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3">
+      <c r="C133" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3">
+      <c r="C134" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3">
+      <c r="C135" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3">
+      <c r="B138" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3">
+      <c r="B140" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3">
+      <c r="B141" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3">
+      <c r="B142" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3">
+      <c r="B143" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3">
+      <c r="B146" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3">
+      <c r="C148" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3">
+      <c r="C149" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3">
+      <c r="C150" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3">
+      <c r="C151" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3">
+      <c r="C152" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3">
+      <c r="C153" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3">
+      <c r="C154" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3">
+      <c r="C155" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3">
+      <c r="C156" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3">
+      <c r="B158" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3">
+      <c r="B160" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3">
+      <c r="B162" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3">
+      <c r="B164" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3">
+      <c r="C166" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3">
+      <c r="C167" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3">
+      <c r="C168" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3">
+      <c r="C169" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3">
+      <c r="C170" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3">
+      <c r="C171" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3">
+      <c r="C172" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3">
+      <c r="B175" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3">
+      <c r="B176" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2">
+      <c r="B177" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3">
+      <c r="B196" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3">
+      <c r="B198" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3">
+      <c r="B200" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3">
+      <c r="B202" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3">
+      <c r="B203" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="205" spans="2:3">
+      <c r="B205" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3">
+      <c r="C207" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4">
+      <c r="C209" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="210" spans="2:4">
+      <c r="C210" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="211" spans="2:4">
+      <c r="D211" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4">
+      <c r="C212" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="214" spans="2:4">
+      <c r="C214" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="216" spans="2:4">
+      <c r="C216" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="218" spans="2:4">
+      <c r="C218" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="220" spans="2:4">
+      <c r="B220" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="221" spans="2:4">
+      <c r="B221" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="222" spans="2:4">
+      <c r="B222" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="224" spans="2:4">
+      <c r="B224" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2">
+      <c r="B227" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2">
+      <c r="B229" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2">
+      <c r="B231" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2">
+      <c r="B232" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2">
+      <c r="B234" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2">
+      <c r="B236" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2">
+      <c r="B237" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2">
+      <c r="B239" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3">
+      <c r="B241" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3">
+      <c r="B243" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="245" spans="2:3">
+      <c r="B245" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3">
+      <c r="B246" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="247" spans="2:3">
+      <c r="C247" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="248" spans="2:3">
+      <c r="C248" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3">
+      <c r="C249" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="250" spans="2:3">
+      <c r="C250" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="251" spans="2:3">
+      <c r="C251" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="253" spans="2:3">
+      <c r="B253" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="255" spans="2:3">
+      <c r="B255" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="256" spans="2:3">
+      <c r="C256" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="257" spans="2:3">
+      <c r="C257" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="258" spans="2:3">
+      <c r="C258" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="259" spans="2:3">
+      <c r="C259" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3">
+      <c r="C260" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3">
+      <c r="B262" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="264" spans="2:3">
+      <c r="B264" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="265" spans="2:3">
+      <c r="B265" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="267" spans="2:3">
+      <c r="B267" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="268" spans="2:3">
+      <c r="B268" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="270" spans="2:3">
+      <c r="B270" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="271" spans="2:3">
+      <c r="C271" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="272" spans="2:3">
+      <c r="C272" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="273" spans="3:3">
+      <c r="C273" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="275" spans="3:3">
+      <c r="C275" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="276" spans="3:3">
+      <c r="C276" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="277" spans="3:3">
+      <c r="C277" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="279" spans="3:3">
+      <c r="C279" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="281" spans="3:3">
+      <c r="C281" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="282" spans="3:3">
+      <c r="C282" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="283" spans="3:3">
+      <c r="C283" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="284" spans="3:3">
+      <c r="C284" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="285" spans="3:3">
+      <c r="C285" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="286" spans="3:3">
+      <c r="C286" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="287" spans="3:3">
+      <c r="C287" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="288" spans="3:3">
+      <c r="C288" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="289" spans="3:3">
+      <c r="C289" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="290" spans="3:3">
+      <c r="C290" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="291" spans="3:3">
+      <c r="C291" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="292" spans="3:3">
+      <c r="C292" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="293" spans="3:3">
+      <c r="C293" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="294" spans="3:3">
+      <c r="C294" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="295" spans="3:3">
+      <c r="C295" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="296" spans="3:3">
+      <c r="C296" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="297" spans="3:3">
+      <c r="C297" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="298" spans="3:3">
+      <c r="C298" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="299" spans="3:3">
+      <c r="C299" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="300" spans="3:3">
+      <c r="C300" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="302" spans="3:3">
+      <c r="C302" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="303" spans="3:3">
+      <c r="C303" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="304" spans="3:3">
+      <c r="C304" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="306" spans="2:3">
+      <c r="C306" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="308" spans="2:3">
+      <c r="C308" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="309" spans="2:3">
+      <c r="C309" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="310" spans="2:3">
+      <c r="C310" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="313" spans="2:3">
+      <c r="B313" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="315" spans="2:3">
+      <c r="B315" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="316" spans="2:3">
+      <c r="B316" s="6" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="318" spans="2:3">
+      <c r="B318" s="6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="320" spans="2:3">
+      <c r="B320" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="321" spans="2:3">
+      <c r="B321" t="s">
+        <v>243</v>
+      </c>
+      <c r="C321" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="322" spans="2:3">
+      <c r="C322" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="323" spans="2:3">
+      <c r="C323" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="325" spans="2:3">
+      <c r="B325" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="326" spans="2:3">
+      <c r="C326" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="327" spans="2:3">
+      <c r="C327" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="328" spans="2:3">
+      <c r="C328" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="330" spans="2:3">
+      <c r="B330" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="331" spans="2:3">
+      <c r="B331" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="333" spans="2:3">
+      <c r="B333" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="334" spans="2:3">
+      <c r="B334" t="s">
+        <v>366</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B39"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="2" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="2:2">
@@ -1938,64 +4779,59 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="2" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="2" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="2:2">
@@ -2010,22 +4846,17 @@
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Docker/Docker_Setup.xlsx
+++ b/Document/Docker/Docker_Setup.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14500" yWindow="80" windowWidth="26080" windowHeight="17960" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="4" r:id="rId1"/>
     <sheet name="JDK安装" sheetId="6" r:id="rId2"/>
     <sheet name="Tomcat安装" sheetId="7" r:id="rId3"/>
     <sheet name="PostgreSQL安装" sheetId="8" r:id="rId4"/>
-    <sheet name="emin" sheetId="5" r:id="rId5"/>
+    <sheet name="ZooKeeper安装" sheetId="9" r:id="rId5"/>
+    <sheet name="emin" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="461">
   <si>
     <t>Docker引擎的下载与安装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,10 +231,6 @@
   </si>
   <si>
     <t xml:space="preserve">         # 由于墙的原因,这种方式可能无法完成,或者出现No package available等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  8 提交我们的修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -511,14 +508,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    Centos6.x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标系统环境</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">     # 如果另外的机器想导入做好的centos/jdk1_7镜像,则可以把之前的centos_jdk1_7.tar 拷贝的目标机器,导入docker引擎</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -725,10 +714,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  假设下载的tar包在本地的路劲 /home/emin/download</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2 启动docker服务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1005,37 +990,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  # 在宿主机器打开浏览器,输入 172.17.0.2:8080 ,显示熟悉的tomcat界面说明成功了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  # 如果要通过局域网内的其它机器访问,则需要在run image的时候暴露端口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  # 通过宿主机器的 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF3366FF"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ip:18080</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 来访问</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1440,10 +1395,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">         yum -y install gcc automake autoconf libtool make</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">       #  因为make 是gcc的一个指令,虽然我们之前安装过gcc,不过还需要安装这个(不同机器配置不一样的)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1558,10 +1509,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">      pgsql --version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">      # 如果提示 psql: command not found,则需要配置相关的环境变量,相关命令都是在 pgsql/bin 里的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1596,6 +1543,379 @@
   </si>
   <si>
     <t>PATH=$PATH:$HOME/bin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       # 再次执行 psql --version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         # 输出: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">psql (PostgreSQL) 9.3.14 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,则表示已经成功，接下来可以通过命令的方式创建数据库等的了</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  6.2 新增postgres 用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      useradd postgres</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      # 这个 postgres 用户是专门用来操作数据库的,我们不需要这个物理用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      vi /etc/passwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      rm -r /home/postgres</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      # adduser postgres 不会创建物理目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  6.3 创建数据库目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      # 不过这个目录数据root用户,将起改为 postgres 这个用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drwxr-xr-x 2 root root 4096 Sep  2 09:04 bin</t>
+  </si>
+  <si>
+    <t>drwxr-xr-x 2 root root 4096 Sep  2 09:55 data</t>
+  </si>
+  <si>
+    <t>drwxr-xr-x 6 root root 4096 Sep  2 09:04 include</t>
+  </si>
+  <si>
+    <t>drwxr-xr-x 4 root root 4096 Sep  2 09:04 lib</t>
+  </si>
+  <si>
+    <t>drwxr-xr-x 6 root root 4096 Sep  2 09:04 share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      chown postgres:postgres /usr/local/pgsql/data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          # ll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drwxr-xr-x 2 root     root     4096 Sep  2 09:04 bin</t>
+  </si>
+  <si>
+    <t>drwxr-xr-x 2 postgres postgres 4096 Sep  2 09:55 data</t>
+  </si>
+  <si>
+    <t>drwxr-xr-x 6 root     root     4096 Sep  2 09:04 include</t>
+  </si>
+  <si>
+    <t>drwxr-xr-x 4 root     root     4096 Sep  2 09:04 lib</t>
+  </si>
+  <si>
+    <t>drwxr-xr-x 6 root     root     4096 Sep  2 09:04 share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6.4 初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      # 切换到postgres用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      su - postgres</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      # 初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-bash-4.2$ /usr/local/pgsql/bin/initdb -D /usr/local/pgsql/data</t>
+  </si>
+  <si>
+    <t>The files belonging to this database system will be owned by user "postgres".</t>
+  </si>
+  <si>
+    <t>This user must also own the server process.</t>
+  </si>
+  <si>
+    <t>The database cluster will be initialized with locale "C".</t>
+  </si>
+  <si>
+    <t>The default database encoding has accordingly been set to "SQL_ASCII".</t>
+  </si>
+  <si>
+    <t>The default text search configuration will be set to "english".</t>
+  </si>
+  <si>
+    <t>Data page checksums are disabled.</t>
+  </si>
+  <si>
+    <t>fixing permissions on existing directory /usr/local/pgsql/data ... ok</t>
+  </si>
+  <si>
+    <t>creating subdirectories ... ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          # 成功执行,出现如下信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selecting default max_connections ... 100</t>
+  </si>
+  <si>
+    <t>selecting default shared_buffers ... 128MB</t>
+  </si>
+  <si>
+    <t>creating configuration files ... ok</t>
+  </si>
+  <si>
+    <t>creating template1 database in /usr/local/pgsql/data/base/1 ... ok</t>
+  </si>
+  <si>
+    <t>initializing pg_authid ... ok</t>
+  </si>
+  <si>
+    <t>initializing dependencies ... ok</t>
+  </si>
+  <si>
+    <t>creating system views ... ok</t>
+  </si>
+  <si>
+    <t>loading system objects' descriptions ... ok</t>
+  </si>
+  <si>
+    <t>creating collations ... ok</t>
+  </si>
+  <si>
+    <t>creating conversions ... ok</t>
+  </si>
+  <si>
+    <t>creating dictionaries ... ok</t>
+  </si>
+  <si>
+    <t>setting privileges on built-in objects ... ok</t>
+  </si>
+  <si>
+    <t>creating information schema ... ok</t>
+  </si>
+  <si>
+    <t>loading PL/pgSQL server-side language ... ok</t>
+  </si>
+  <si>
+    <t>vacuuming database template1 ... ok</t>
+  </si>
+  <si>
+    <t>copying template1 to template0 ... ok</t>
+  </si>
+  <si>
+    <t>copying template1 to postgres ... ok</t>
+  </si>
+  <si>
+    <t>syncing data to disk ... ok</t>
+  </si>
+  <si>
+    <t>WARNING: enabling "trust" authentication for local connections</t>
+  </si>
+  <si>
+    <t>You can change this by editing pg_hba.conf or using the option -A, or</t>
+  </si>
+  <si>
+    <t>--auth-local and --auth-host, the next time you run initdb.</t>
+  </si>
+  <si>
+    <t>Success. You can now start the database server using:</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    /usr/local/pgsql/bin/pg_ctl -D /usr/local/pgsql/data -l logfile start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      # 先退出postgres环境,回到root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      exit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      cd /usr/local/postgresql-9.3.14/contrib/start-scripts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-rw-r--r-- 1 1107 1107 1529 Aug  8 20:31 freebsd</t>
+  </si>
+  <si>
+    <t>-rw-r--r-- 1 1107 1107 3437 Aug  8 20:31 linux</t>
+  </si>
+  <si>
+    <t>drwxrwxrwx 2 1107 1107 4096 Aug  8 20:51 osx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           # ll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">           # ll /etc/init.d/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[root@129d63e58930 start-scripts]# ll /etc/init.d/</t>
+  </si>
+  <si>
+    <t>total 4</t>
+  </si>
+  <si>
+    <t>-rw-r--r-- 1 root root 1160 Jun 23 19:08 README</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      cp linux /etc/init.d/posgresql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      # 复制start-scripts/linux 脚本到 /etc/init.d 目录下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      chmod +x /etc/init.d/posgresql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      # 添加可执行权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   Apache-tomcat 8.0.36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   PostgreSQL 9.3.x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   ZooKeeper 3.4.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标镜像集成环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   Centos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   JDK1.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       # 安装完之后就可以执行了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         gmake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         yum -y install gcc automake autoconf libtool make</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.到Apache官网下载ZooKeeper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   http://mirror.bit.edu.cn/apache/zookeeper/zookeeper-3.4.8/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  # 因为下载的资源包要在容器中使用,所以需要将资源包目录挂载到容器中(第3步)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    假设下载的tar包在本地的路劲 /home/emin/download</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>service docker start</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>docker run -i -t -v /home/emin/download:/home/soft centos /bin/bash</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">       # 编辑完成,为了不退出当前终端并让其生效,则需要 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>source /root/.bash_profile</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1616,315 +1936,444 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">       #  编辑完成,为了不退出当前终端并让其生效,则需要 </t>
+    <t xml:space="preserve">      psql --version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  8 提交对镜像的修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      最后有一行 postgres:x:1000:1000::/home/postgres:/bin/bash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      修改为     postgres:x:1000:1000::/usr/local/pgsql:/bin/bash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      mkdir /usr/local/pgsql/data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      /usr/local/pgsql/bin/initdb -D /usr/local/pgsql/data/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    /usr/local/pgsql/bin/postgres -D /usr/local/pgsql/data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  6.5 创建启动数据库脚本(可选)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  6.6 启动数据库服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      su - postgres</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      cd /usr/local/pgsql/bin/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      ./pg_ctl status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      # 如果提示 pg_ctl: no database directory specified and environment variable PGDATA unset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      # 则需要配置PGDATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        vi /home/postgres/.bash_profile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">-bash-4.2$ cat /home/postgres/.bash_profile </t>
+  </si>
+  <si>
+    <t>PATH=$PATH:$HOME/.local/bin:$HOME/bin</t>
+  </si>
+  <si>
+    <t>PGDATA=/usr/local/pgsql/data</t>
+  </si>
+  <si>
+    <t>export PGDATA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        souce /home/postgres/.bash_profile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      # 以上环境有待改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-bash-4.2$ ./pg_ctl status</t>
+  </si>
+  <si>
+    <t>pg_ctl: server is running (PID: 84)</t>
+  </si>
+  <si>
+    <t>/usr/local/pgsql/bin/postgres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        # 再次输入命令 ./pg_ctl status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        # 出现以下信息说明数据库服务已经启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      # 以下为创建数据库,进入数据库,以及创建数据表操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">-bash-4.2$ ./createdb testDb </t>
+  </si>
+  <si>
+    <t>-bash-4.2$ psql testDb</t>
+  </si>
+  <si>
+    <t>psql (9.3.14)</t>
+  </si>
+  <si>
+    <t>Type "help" for help.</t>
+  </si>
+  <si>
+    <t>testDb=# \l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                             List of databases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Name    |  Owner   | Encoding  | Collate | Ctype |   Access privileges   </t>
+  </si>
+  <si>
+    <t>-----------+----------+-----------+---------+-------+-----------------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> postgres  | postgres | SQL_ASCII | C       | C     | </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> template0 | postgres | SQL_ASCII | C       | C     | =c/postgres          +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           |          |           |         |       | postgres=CTc/postgres</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> template1 | postgres | SQL_ASCII | C       | C     | =c/postgres          +</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> testDb    | postgres | SQL_ASCII | C       | C     | </t>
+  </si>
+  <si>
+    <t>(4 rows)</t>
+  </si>
+  <si>
+    <t>testDb=# \c testDb</t>
+  </si>
+  <si>
+    <t>You are now connected to database "testDb" as user "postgres".</t>
+  </si>
+  <si>
+    <t>testDb=# \c postgres</t>
+  </si>
+  <si>
+    <t>You are now connected to database "postgres" as user "postgres".</t>
+  </si>
+  <si>
+    <t>postgres=# create table table1(id int4,name char(20));</t>
+  </si>
+  <si>
+    <t>CREATE TABLE</t>
+  </si>
+  <si>
+    <t>postgres=# \d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         List of relations</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Schema |  Name  | Type  |  Owner   </t>
+  </si>
+  <si>
+    <t>--------+--------+-------+----------</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public | table1 | table | postgres</t>
+  </si>
+  <si>
+    <t>(1 row)</t>
+  </si>
+  <si>
+    <t>postgres=# insert into table1 values(1,'sam');</t>
+  </si>
+  <si>
+    <t>INSERT 0 1</t>
+  </si>
+  <si>
+    <t>postgres=# select * from table1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> id |         name         </t>
+  </si>
+  <si>
+    <t>----+----------------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1 | sam                 </t>
+  </si>
+  <si>
+    <t>postgres=# \q</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  # </t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="14"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>source /root/.bash_profile</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">       # 再次执行 psql --version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">         # 输出: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF008000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">psql (PostgreSQL) 9.3.14 </t>
+      <t>外部主机</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="14"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,则表示已经成功，接下来可以通过命令的方式创建数据库等的了</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  6.2 新增postgres 用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      useradd postgres</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      # 这个 postgres 用户是专门用来操作数据库的,我们不需要这个物理用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      vi /etc/passwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        # 最后有一行 postgres:x:1000:1000::/home/postgres:/bin/bash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        # 修改为     postgres:x:1000:1000::/usr/local/bin:/bin/bash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      rm -r /home/postgres</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      # adduser postgres 不会创建物理目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  6.3 创建数据库目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      mkdir /usr/local/pgsql/data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      # 不过这个目录数据root用户,将起改为 postgres 这个用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>drwxr-xr-x 2 root root 4096 Sep  2 09:04 bin</t>
-  </si>
-  <si>
-    <t>drwxr-xr-x 2 root root 4096 Sep  2 09:55 data</t>
-  </si>
-  <si>
-    <t>drwxr-xr-x 6 root root 4096 Sep  2 09:04 include</t>
-  </si>
-  <si>
-    <t>drwxr-xr-x 4 root root 4096 Sep  2 09:04 lib</t>
-  </si>
-  <si>
-    <t>drwxr-xr-x 6 root root 4096 Sep  2 09:04 share</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      chown postgres:postgres /usr/local/pgsql/data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">          # ll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>drwxr-xr-x 2 root     root     4096 Sep  2 09:04 bin</t>
-  </si>
-  <si>
-    <t>drwxr-xr-x 2 postgres postgres 4096 Sep  2 09:55 data</t>
-  </si>
-  <si>
-    <t>drwxr-xr-x 6 root     root     4096 Sep  2 09:04 include</t>
-  </si>
-  <si>
-    <t>drwxr-xr-x 4 root     root     4096 Sep  2 09:04 lib</t>
-  </si>
-  <si>
-    <t>drwxr-xr-x 6 root     root     4096 Sep  2 09:04 share</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  6.4 初始化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      /usr/local/pgsql/bin/initdb -D /usr/local/pgsql/data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      # 切换到postgres用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      su - postgres</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      # 初始化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-bash-4.2$ /usr/local/pgsql/bin/initdb -D /usr/local/pgsql/data</t>
-  </si>
-  <si>
-    <t>The files belonging to this database system will be owned by user "postgres".</t>
-  </si>
-  <si>
-    <t>This user must also own the server process.</t>
-  </si>
-  <si>
-    <t>The database cluster will be initialized with locale "C".</t>
-  </si>
-  <si>
-    <t>The default database encoding has accordingly been set to "SQL_ASCII".</t>
-  </si>
-  <si>
-    <t>The default text search configuration will be set to "english".</t>
-  </si>
-  <si>
-    <t>Data page checksums are disabled.</t>
-  </si>
-  <si>
-    <t>fixing permissions on existing directory /usr/local/pgsql/data ... ok</t>
-  </si>
-  <si>
-    <t>creating subdirectories ... ok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          # 成功执行,出现如下信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>selecting default max_connections ... 100</t>
-  </si>
-  <si>
-    <t>selecting default shared_buffers ... 128MB</t>
-  </si>
-  <si>
-    <t>creating configuration files ... ok</t>
-  </si>
-  <si>
-    <t>creating template1 database in /usr/local/pgsql/data/base/1 ... ok</t>
-  </si>
-  <si>
-    <t>initializing pg_authid ... ok</t>
-  </si>
-  <si>
-    <t>initializing dependencies ... ok</t>
-  </si>
-  <si>
-    <t>creating system views ... ok</t>
-  </si>
-  <si>
-    <t>loading system objects' descriptions ... ok</t>
-  </si>
-  <si>
-    <t>creating collations ... ok</t>
-  </si>
-  <si>
-    <t>creating conversions ... ok</t>
-  </si>
-  <si>
-    <t>creating dictionaries ... ok</t>
-  </si>
-  <si>
-    <t>setting privileges on built-in objects ... ok</t>
-  </si>
-  <si>
-    <t>creating information schema ... ok</t>
-  </si>
-  <si>
-    <t>loading PL/pgSQL server-side language ... ok</t>
-  </si>
-  <si>
-    <t>vacuuming database template1 ... ok</t>
-  </si>
-  <si>
-    <t>copying template1 to template0 ... ok</t>
-  </si>
-  <si>
-    <t>copying template1 to postgres ... ok</t>
-  </si>
-  <si>
-    <t>syncing data to disk ... ok</t>
-  </si>
-  <si>
-    <t>WARNING: enabling "trust" authentication for local connections</t>
-  </si>
-  <si>
-    <t>You can change this by editing pg_hba.conf or using the option -A, or</t>
-  </si>
-  <si>
-    <t>--auth-local and --auth-host, the next time you run initdb.</t>
-  </si>
-  <si>
-    <t>Success. You can now start the database server using:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    /usr/local/pgsql/bin/postgres -D /usr/local/pgsql/data</t>
-  </si>
-  <si>
-    <t>or</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    /usr/local/pgsql/bin/pg_ctl -D /usr/local/pgsql/data -l logfile start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  6.5 创建启动数据库脚本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      # 先退出postgres环境,回到root</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      exit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      cd /usr/local/postgresql-9.3.14/contrib/start-scripts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-rw-r--r-- 1 1107 1107 1529 Aug  8 20:31 freebsd</t>
-  </si>
-  <si>
-    <t>-rw-r--r-- 1 1107 1107 3437 Aug  8 20:31 linux</t>
-  </si>
-  <si>
-    <t>drwxrwxrwx 2 1107 1107 4096 Aug  8 20:51 osx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           # ll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">           # ll /etc/init.d/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[root@129d63e58930 start-scripts]# ll /etc/init.d/</t>
-  </si>
-  <si>
-    <t>total 4</t>
-  </si>
-  <si>
-    <t>-rw-r--r-- 1 root root 1160 Jun 23 19:08 README</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      cp linux /etc/init.d/posgresql</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      # 复制start-scripts/linux 脚本到 /etc/init.d 目录下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      chmod +x /etc/init.d/posgresql</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      # 添加可执行权限</t>
+      <t>通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>宿主机器的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ip:18080</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 来访问container的tomcat(备注:要在运行的容器中启动tomcat服务)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  # 在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>宿主机器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>打开浏览器,输入container内部ip 172.17.0.2:8080 ,显示熟悉的tomcat界面说明成功了</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tar -xgf zookeeper-3.4.8.tar.gz</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 移动解压后的zookeeper-3.4.8 到相应的目录,如/usr/local</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mv zookeeper-3.4.8 /usr/local/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 配置zookeeper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  cd /usr/local/zookeeper-3.4.8/conf/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  mv zoo_sample.cfg zoo.cfg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 启动zookeeper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  cd /usr/local/zookeeper-3.4.8/bin/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ./zkServer.sh start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  # 看到以下信息说明启动成功了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZooKeeper JMX enabled by default</t>
+  </si>
+  <si>
+    <t>Using config: /usr/local/zookeeper-3.4.8/bin/../conf/zoo.cfg</t>
+  </si>
+  <si>
+    <t>Starting zookeeper ... STARTED</t>
+  </si>
+  <si>
+    <r>
+      <t>[root@ec41b0564b7e bin]#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ./zkServer.sh start</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  # 在启动images的时候,container对外暴露的9081映射为2181,该端口是zooKeeper的默认端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  # 由于需要在外部的机器(不是宿主机器)去访问,则需要知道该container的宿主机器的ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  # 所在在container的宿主机器通过命令 ifocnfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  # 本次测试,宿主机器的ip 是192.168.230.142</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  # 则在外部机器(如局域网内其他机器)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     telnet 192.168.230.142 9081</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trying 192.168.230.142...</t>
+  </si>
+  <si>
+    <t>Connected to 192.168.230.142.</t>
+  </si>
+  <si>
+    <t>Escape character is '^]'.</t>
+  </si>
+  <si>
+    <t>$ telnet 192.168.230.142 9081</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     # 显示如下信息,说明连接成功了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 关闭zooKeeper服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stopping zookeeper ... STOPPED</t>
+  </si>
+  <si>
+    <t>[root@ec41b0564b7e bin]# ./zkServer.sh stop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   ./zkServer.sh stop</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1932,7 +2381,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2043,6 +2492,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2061,7 +2525,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="151">
+  <cellStyleXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2213,8 +2677,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2224,8 +2706,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="151">
+  <cellStyles count="169">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2301,6 +2787,15 @@
     <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2376,6 +2871,15 @@
     <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2389,13 +2893,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2432,13 +2936,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2475,13 +2979,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2834,10 +3338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B142"/>
+  <dimension ref="B2:B146"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="N105" sqref="N105"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="L119" sqref="L119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -2851,444 +3355,464 @@
   <sheetData>
     <row r="2" spans="2:2" ht="19">
       <c r="B2" s="4" t="s">
-        <v>78</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" ht="19">
-      <c r="B5" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" ht="19">
-      <c r="B6" s="4"/>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="2" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="2" t="s">
-        <v>81</v>
-      </c>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="19">
+      <c r="B9" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" ht="19">
+      <c r="B10" s="4"/>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="2" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="5" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="2" t="s">
-        <v>3</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="5" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="2" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="2" t="s">
-        <v>27</v>
+      <c r="B21" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="2" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" ht="20">
-      <c r="B34" s="3"/>
+      <c r="B33" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" ht="20">
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="2" t="s">
+    <row r="41" spans="2:2">
+      <c r="B41" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="5" t="s">
+    <row r="42" spans="2:2">
+      <c r="B42" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="2" t="s">
+    <row r="43" spans="2:2">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="2" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" ht="19">
-      <c r="B47" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" ht="19">
-      <c r="B48" s="4"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="2" t="s">
-        <v>32</v>
+      <c r="B49" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" ht="19">
+      <c r="B51" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" ht="19">
+      <c r="B52" s="4"/>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="2" t="s">
+    <row r="56" spans="2:2">
+      <c r="B56" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="5" t="s">
+    <row r="57" spans="2:2">
+      <c r="B57" s="5" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="2" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64" s="2" t="s">
-        <v>60</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" s="2" t="s">
-        <v>29</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="2" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" s="2" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="2" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2">
-      <c r="B86" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2">
-      <c r="B88" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" s="2" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" s="2" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="2" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" s="2" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2">
-      <c r="B119" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" s="2" t="s">
-        <v>66</v>
+        <v>370</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="132" spans="2:2">
       <c r="B132" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="139" spans="2:2">
-      <c r="B139" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="141" spans="2:2">
-      <c r="B141" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142" s="2" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3308,9 +3832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
@@ -3319,57 +3841,57 @@
   <sheetData>
     <row r="3" spans="2:2">
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3386,10 +3908,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B70"/>
+  <dimension ref="B2:B71"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD25"/>
+    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -3399,52 +3921,52 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="2" t="s">
-        <v>155</v>
+        <v>363</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="2" t="s">
-        <v>130</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="2:2">
@@ -3452,134 +3974,140 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="2" t="s">
-        <v>121</v>
+    <row r="21" spans="2:2">
+      <c r="B21" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="5" t="s">
-        <v>140</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="5" t="s">
-        <v>142</v>
+      <c r="B54" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="2" t="s">
-        <v>144</v>
+      <c r="B58" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="2" t="s">
-        <v>151</v>
+        <v>430</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="2" t="s">
+        <v>429</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -3591,305 +4119,305 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D334"/>
+  <dimension ref="B3:D429"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="6" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="6" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="C24" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="C25" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="C26" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="C27" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="C28" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="C29" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="C30" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="C31" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="C32" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="C33" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="C34" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="C35" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="C36" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="C37" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="C38" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" s="6" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="46" spans="2:3">
       <c r="B46" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" s="6" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="C52" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="C53" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="2:3">
       <c r="C54" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="C55" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="2:3">
       <c r="C57" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="59" spans="2:3">
       <c r="C59" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="2:3">
       <c r="C60" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" spans="2:3">
       <c r="C61" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" spans="2:3">
       <c r="C62" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="63" spans="2:3">
       <c r="C63" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" spans="2:3">
       <c r="B65" s="6" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="2:3">
       <c r="B66" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="68" spans="2:3">
       <c r="C68" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70" spans="2:3">
       <c r="B70" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="71" spans="2:3">
       <c r="B71" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="73" spans="2:3">
       <c r="B73" s="6" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="75" spans="2:3">
       <c r="B75" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="77" spans="2:3">
       <c r="C77" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="78" spans="2:3">
       <c r="C78" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="79" spans="2:3">
       <c r="C79" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="80" spans="2:3">
       <c r="C80" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="81" spans="2:3">
       <c r="C81" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="82" spans="2:3">
       <c r="C82" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="83" spans="2:3">
       <c r="C83" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="85" spans="2:3">
       <c r="B85" s="6" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="87" spans="2:3">
       <c r="B87" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="89" spans="2:3">
       <c r="B89" s="6" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="90" spans="2:3">
@@ -3897,825 +4425,1195 @@
     </row>
     <row r="91" spans="2:3">
       <c r="B91" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="93" spans="2:3">
       <c r="C93" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="94" spans="2:3">
       <c r="C94" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="95" spans="2:3">
       <c r="C95" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="96" spans="2:3">
       <c r="C96" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="97" spans="2:3">
       <c r="C97" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99" spans="2:3">
       <c r="B99" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="101" spans="2:3">
       <c r="B101" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="103" spans="2:3">
       <c r="C103" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="104" spans="2:3">
       <c r="C104" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="105" spans="2:3">
       <c r="C105" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="106" spans="2:3">
       <c r="C106" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="107" spans="2:3">
       <c r="C107" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="108" spans="2:3">
       <c r="C108" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="109" spans="2:3">
       <c r="C109" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="111" spans="2:3">
       <c r="B111" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="113" spans="2:3">
       <c r="B113" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="115" spans="2:3">
       <c r="B115" s="6" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="117" spans="2:3">
       <c r="B117" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="119" spans="2:3">
       <c r="C119" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="120" spans="2:3">
       <c r="C120" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="121" spans="2:3">
       <c r="C121" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="122" spans="2:3">
       <c r="C122" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="123" spans="2:3">
       <c r="C123" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="124" spans="2:3">
       <c r="C124" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="125" spans="2:3">
       <c r="C125" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="126" spans="2:3">
       <c r="C126" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="127" spans="2:3">
       <c r="C127" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="128" spans="2:3">
       <c r="C128" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="129" spans="2:3">
       <c r="C129" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="130" spans="2:3">
       <c r="C130" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="131" spans="2:3">
       <c r="C131" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="132" spans="2:3">
       <c r="C132" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="133" spans="2:3">
       <c r="C133" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="134" spans="2:3">
       <c r="C134" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="135" spans="2:3">
       <c r="C135" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="138" spans="2:3">
       <c r="B138" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="140" spans="2:3">
       <c r="B140" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="141" spans="2:3">
       <c r="B141" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="142" spans="2:3">
       <c r="B142" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="143" spans="2:3">
-      <c r="B143" t="s">
-        <v>246</v>
+      <c r="B143" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3">
+      <c r="B145" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="146" spans="2:3">
-      <c r="B146" t="s">
-        <v>248</v>
+      <c r="B146" s="6" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="148" spans="2:3">
-      <c r="C148" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="149" spans="2:3">
-      <c r="C149" t="s">
-        <v>250</v>
+      <c r="B148" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="150" spans="2:3">
       <c r="C150" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="151" spans="2:3">
       <c r="C151" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="152" spans="2:3">
       <c r="C152" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="153" spans="2:3">
       <c r="C153" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="154" spans="2:3">
       <c r="C154" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="155" spans="2:3">
       <c r="C155" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="156" spans="2:3">
-      <c r="C156" s="7" t="s">
-        <v>257</v>
+      <c r="C156" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3">
+      <c r="C157" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="158" spans="2:3">
-      <c r="B158" t="s">
-        <v>258</v>
+      <c r="C158" s="7" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="160" spans="2:3">
       <c r="B160" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="162" spans="2:3">
-      <c r="B162" s="6" t="s">
-        <v>260</v>
+      <c r="B162" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="164" spans="2:3">
-      <c r="B164" t="s">
-        <v>261</v>
+      <c r="B164" s="6" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="166" spans="2:3">
-      <c r="C166" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="167" spans="2:3">
-      <c r="C167" t="s">
+      <c r="B166" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="168" spans="2:3">
       <c r="C168" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="169" spans="2:3">
       <c r="C169" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
     </row>
     <row r="170" spans="2:3">
       <c r="C170" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="171" spans="2:3">
       <c r="C171" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="172" spans="2:3">
-      <c r="C172" s="7" t="s">
+      <c r="C172" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3">
+      <c r="C173" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3">
+      <c r="C174" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2">
+      <c r="B177" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2">
+      <c r="B178" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2">
+      <c r="B181" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2">
+      <c r="B198" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2">
+      <c r="B200" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2">
+      <c r="B202" s="6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2">
+      <c r="B204" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="175" spans="2:3">
-      <c r="B175" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="176" spans="2:3">
-      <c r="B176" s="6" t="s">
+    <row r="205" spans="2:2">
+      <c r="B205" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="177" spans="2:2">
-      <c r="B177" s="6" t="s">
+    <row r="207" spans="2:2">
+      <c r="B207" t="s">
         <v>268</v>
-      </c>
-    </row>
-    <row r="179" spans="2:2">
-      <c r="B179" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="196" spans="2:3">
-      <c r="B196" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="198" spans="2:3">
-      <c r="B198" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="200" spans="2:3">
-      <c r="B200" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="202" spans="2:3">
-      <c r="B202" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="203" spans="2:3">
-      <c r="B203" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="205" spans="2:3">
-      <c r="B205" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="207" spans="2:3">
-      <c r="C207" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="209" spans="2:4">
       <c r="C209" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="210" spans="2:4">
-      <c r="C210" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="211" spans="2:4">
-      <c r="D211" t="s">
-        <v>280</v>
+      <c r="C211" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="212" spans="2:4">
       <c r="C212" t="s">
-        <v>281</v>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="213" spans="2:4">
+      <c r="D213" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="214" spans="2:4">
       <c r="C214" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="216" spans="2:4">
-      <c r="C216" s="8" t="s">
-        <v>284</v>
+      <c r="C216" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="218" spans="2:4">
-      <c r="C218" t="s">
-        <v>283</v>
+      <c r="C218" s="8" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="220" spans="2:4">
-      <c r="B220" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="221" spans="2:4">
-      <c r="B221" t="s">
-        <v>286</v>
+      <c r="C220" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="222" spans="2:4">
       <c r="B222" t="s">
-        <v>287</v>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="223" spans="2:4">
+      <c r="B223" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="224" spans="2:4">
       <c r="B224" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="227" spans="2:2">
-      <c r="B227" t="s">
-        <v>289</v>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2">
+      <c r="B226" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="229" spans="2:2">
-      <c r="B229" s="6" t="s">
-        <v>290</v>
+      <c r="B229" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="231" spans="2:2">
-      <c r="B231" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="232" spans="2:2">
-      <c r="B232" t="s">
-        <v>296</v>
+      <c r="B231" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2">
+      <c r="B233" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="234" spans="2:2">
-      <c r="B234" s="6" t="s">
-        <v>292</v>
+      <c r="B234" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="236" spans="2:2">
-      <c r="B236" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="237" spans="2:2">
-      <c r="B237" t="s">
-        <v>294</v>
+      <c r="B236" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2">
+      <c r="B238" s="9" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="239" spans="2:2">
       <c r="B239" s="6" t="s">
-        <v>295</v>
+        <v>372</v>
       </c>
     </row>
     <row r="241" spans="2:3">
-      <c r="B241" t="s">
-        <v>297</v>
+      <c r="B241" s="10" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="243" spans="2:3">
-      <c r="B243" s="6" t="s">
-        <v>298</v>
+      <c r="B243" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="245" spans="2:3">
-      <c r="B245" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="246" spans="2:3">
-      <c r="B246" t="s">
-        <v>306</v>
+      <c r="B245" s="6" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="247" spans="2:3">
-      <c r="C247" t="s">
-        <v>300</v>
+      <c r="B247" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="248" spans="2:3">
-      <c r="C248" t="s">
-        <v>301</v>
+      <c r="B248" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="249" spans="2:3">
       <c r="C249" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
     </row>
     <row r="250" spans="2:3">
       <c r="C250" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
     </row>
     <row r="251" spans="2:3">
       <c r="C251" t="s">
-        <v>304</v>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="252" spans="2:3">
+      <c r="C252" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="253" spans="2:3">
-      <c r="B253" s="6" t="s">
-        <v>305</v>
+      <c r="C253" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="255" spans="2:3">
-      <c r="B255" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="256" spans="2:3">
-      <c r="C256" t="s">
-        <v>307</v>
+      <c r="B255" s="6" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="257" spans="2:3">
-      <c r="C257" t="s">
-        <v>308</v>
+      <c r="B257" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="258" spans="2:3">
       <c r="C258" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
     </row>
     <row r="259" spans="2:3">
       <c r="C259" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
     </row>
     <row r="260" spans="2:3">
       <c r="C260" t="s">
-        <v>311</v>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3">
+      <c r="C261" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="262" spans="2:3">
-      <c r="B262" t="s">
-        <v>312</v>
+      <c r="C262" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="264" spans="2:3">
       <c r="B264" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="265" spans="2:3">
-      <c r="B265" s="6" t="s">
-        <v>315</v>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="266" spans="2:3">
+      <c r="B266" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="267" spans="2:3">
-      <c r="B267" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="268" spans="2:3">
-      <c r="B268" s="6" t="s">
-        <v>313</v>
+      <c r="B267" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="269" spans="2:3">
+      <c r="B269" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="270" spans="2:3">
-      <c r="B270" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="271" spans="2:3">
-      <c r="C271" t="s">
-        <v>317</v>
+      <c r="B270" s="6" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="272" spans="2:3">
-      <c r="C272" t="s">
-        <v>318</v>
+      <c r="B272" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="273" spans="3:3">
       <c r="C273" t="s">
-        <v>319</v>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="274" spans="3:3">
+      <c r="C274" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="275" spans="3:3">
       <c r="C275" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="276" spans="3:3">
-      <c r="C276" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
     </row>
     <row r="277" spans="3:3">
       <c r="C277" t="s">
-        <v>322</v>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="278" spans="3:3">
+      <c r="C278" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="279" spans="3:3">
       <c r="C279" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
     </row>
     <row r="281" spans="3:3">
       <c r="C281" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="282" spans="3:3">
-      <c r="C282" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
     </row>
     <row r="283" spans="3:3">
       <c r="C283" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
     </row>
     <row r="284" spans="3:3">
       <c r="C284" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
     </row>
     <row r="285" spans="3:3">
       <c r="C285" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="286" spans="3:3">
       <c r="C286" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
     </row>
     <row r="287" spans="3:3">
       <c r="C287" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
     </row>
     <row r="288" spans="3:3">
       <c r="C288" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
     </row>
     <row r="289" spans="3:3">
       <c r="C289" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
     </row>
     <row r="290" spans="3:3">
       <c r="C290" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
     </row>
     <row r="291" spans="3:3">
       <c r="C291" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
     </row>
     <row r="292" spans="3:3">
       <c r="C292" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
     </row>
     <row r="293" spans="3:3">
       <c r="C293" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
     </row>
     <row r="294" spans="3:3">
       <c r="C294" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
     </row>
     <row r="295" spans="3:3">
       <c r="C295" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
     </row>
     <row r="296" spans="3:3">
       <c r="C296" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
     </row>
     <row r="297" spans="3:3">
       <c r="C297" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
     </row>
     <row r="298" spans="3:3">
       <c r="C298" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
     </row>
     <row r="299" spans="3:3">
       <c r="C299" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
     </row>
     <row r="300" spans="3:3">
       <c r="C300" t="s">
-        <v>344</v>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="301" spans="3:3">
+      <c r="C301" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="302" spans="3:3">
       <c r="C302" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="303" spans="3:3">
-      <c r="C303" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
     </row>
     <row r="304" spans="3:3">
       <c r="C304" t="s">
-        <v>347</v>
+        <v>331</v>
+      </c>
+    </row>
+    <row r="305" spans="2:3">
+      <c r="C305" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="306" spans="2:3">
       <c r="C306" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
     </row>
     <row r="308" spans="2:3">
       <c r="C308" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="309" spans="2:3">
-      <c r="C309" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
     </row>
     <row r="310" spans="2:3">
       <c r="C310" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="313" spans="2:3">
-      <c r="B313" t="s">
-        <v>352</v>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="311" spans="2:3">
+      <c r="C311" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="312" spans="2:3">
+      <c r="C312" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="315" spans="2:3">
       <c r="B315" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="316" spans="2:3">
-      <c r="B316" s="6" t="s">
-        <v>354</v>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="317" spans="2:3">
+      <c r="B317" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="318" spans="2:3">
       <c r="B318" s="6" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
     </row>
     <row r="320" spans="2:3">
-      <c r="B320" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="321" spans="2:3">
-      <c r="B321" t="s">
-        <v>243</v>
-      </c>
-      <c r="C321" t="s">
-        <v>356</v>
+      <c r="B320" s="6" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="322" spans="2:3">
-      <c r="C322" s="7" t="s">
-        <v>357</v>
+      <c r="B322" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="323" spans="2:3">
+      <c r="B323" t="s">
+        <v>237</v>
+      </c>
       <c r="C323" t="s">
-        <v>358</v>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="324" spans="2:3">
+      <c r="C324" s="7" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="325" spans="2:3">
-      <c r="B325" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="326" spans="2:3">
-      <c r="C326" t="s">
-        <v>361</v>
+      <c r="C325" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="327" spans="2:3">
-      <c r="C327" t="s">
-        <v>362</v>
+      <c r="B327" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="328" spans="2:3">
       <c r="C328" t="s">
-        <v>363</v>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="329" spans="2:3">
+      <c r="C329" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="330" spans="2:3">
-      <c r="B330" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="331" spans="2:3">
-      <c r="B331" s="6" t="s">
-        <v>364</v>
+      <c r="C330" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="332" spans="2:3">
+      <c r="B332" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="333" spans="2:3">
-      <c r="B333" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="334" spans="2:3">
-      <c r="B334" t="s">
-        <v>366</v>
+      <c r="B333" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="335" spans="2:3">
+      <c r="B335" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="336" spans="2:3">
+      <c r="B336" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="339" spans="2:3">
+      <c r="B339" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="341" spans="2:3">
+      <c r="B341" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="342" spans="2:3">
+      <c r="B342" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="343" spans="2:3">
+      <c r="B343" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="345" spans="2:3">
+      <c r="B345" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="346" spans="2:3">
+      <c r="B346" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="347" spans="2:3">
+      <c r="B347" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="349" spans="2:3">
+      <c r="C349" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="350" spans="2:3">
+      <c r="C350" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="352" spans="2:3">
+      <c r="C352" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="353" spans="2:4">
+      <c r="C353" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="354" spans="2:4">
+      <c r="D354" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="355" spans="2:4">
+      <c r="C355" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="357" spans="2:4">
+      <c r="C357" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="359" spans="2:4">
+      <c r="C359" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="361" spans="2:4">
+      <c r="C361" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="363" spans="2:4">
+      <c r="C363" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="364" spans="2:4">
+      <c r="C364" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="366" spans="2:4">
+      <c r="B366" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="369" spans="2:3">
+      <c r="B369" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="370" spans="2:3">
+      <c r="B370" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="371" spans="2:3">
+      <c r="C371" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="372" spans="2:3">
+      <c r="C372" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="373" spans="2:3">
+      <c r="C373" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="375" spans="2:3">
+      <c r="B375" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="377" spans="2:3">
+      <c r="B377" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="379" spans="2:3">
+      <c r="C379" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="380" spans="2:3">
+      <c r="C380" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="381" spans="2:3">
+      <c r="C381" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="382" spans="2:3">
+      <c r="C382" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="384" spans="2:3">
+      <c r="C384" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="385" spans="3:3">
+      <c r="C385" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="386" spans="3:3">
+      <c r="C386" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="387" spans="3:3">
+      <c r="C387" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="388" spans="3:3">
+      <c r="C388" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="389" spans="3:3">
+      <c r="C389" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="390" spans="3:3">
+      <c r="C390" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="391" spans="3:3">
+      <c r="C391" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="392" spans="3:3">
+      <c r="C392" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="393" spans="3:3">
+      <c r="C393" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="394" spans="3:3">
+      <c r="C394" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="396" spans="3:3">
+      <c r="C396" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="397" spans="3:3">
+      <c r="C397" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="398" spans="3:3">
+      <c r="C398" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="399" spans="3:3">
+      <c r="C399" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="400" spans="3:3">
+      <c r="C400" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="401" spans="3:3">
+      <c r="C401" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="402" spans="3:3">
+      <c r="C402" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="403" spans="3:3">
+      <c r="C403" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="404" spans="3:3">
+      <c r="C404" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="405" spans="3:3">
+      <c r="C405" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="406" spans="3:3">
+      <c r="C406" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="407" spans="3:3">
+      <c r="C407" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="408" spans="3:3">
+      <c r="C408" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="410" spans="3:3">
+      <c r="C410" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="411" spans="3:3">
+      <c r="C411" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="412" spans="3:3">
+      <c r="C412" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="413" spans="3:3">
+      <c r="C413" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="414" spans="3:3">
+      <c r="C414" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="415" spans="3:3">
+      <c r="C415" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="416" spans="3:3">
+      <c r="C416" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="417" spans="3:3">
+      <c r="C417" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="418" spans="3:3">
+      <c r="C418" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="419" spans="3:3">
+      <c r="C419" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="421" spans="3:3">
+      <c r="C421" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="422" spans="3:3">
+      <c r="C422" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="423" spans="3:3">
+      <c r="C423" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="424" spans="3:3">
+      <c r="C424" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="425" spans="3:3">
+      <c r="C425" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="426" spans="3:3">
+      <c r="C426" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="427" spans="3:3">
+      <c r="C427" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="429" spans="3:3">
+      <c r="C429" t="s">
+        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -4733,6 +5631,256 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C71"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="5" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" s="5" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="C39" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="C40" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="C41" s="11" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="C42" s="11" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54" s="5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="C57" s="12" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="C58" s="12" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="C59" s="12" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="C60" s="12" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66" s="5" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="C68" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3">
+      <c r="C69" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="C70" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="C71" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B39"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
@@ -4746,117 +5894,117 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Docker/Docker_Setup.xlsx
+++ b/Document/Docker/Docker_Setup.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="340" yWindow="300" windowWidth="25520" windowHeight="17560" tabRatio="646" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="概述" sheetId="4" r:id="rId1"/>
-    <sheet name="JDK安装" sheetId="6" r:id="rId2"/>
-    <sheet name="Tomcat安装" sheetId="7" r:id="rId3"/>
-    <sheet name="PostgreSQL安装" sheetId="8" r:id="rId4"/>
-    <sheet name="ZooKeeper安装" sheetId="9" r:id="rId5"/>
-    <sheet name="emin" sheetId="5" r:id="rId6"/>
+    <sheet name="emin镜像说明" sheetId="5" r:id="rId1"/>
+    <sheet name="Docker安装与使用" sheetId="10" r:id="rId2"/>
+    <sheet name="Centos基础工具安装" sheetId="4" r:id="rId3"/>
+    <sheet name="JDK安装" sheetId="6" r:id="rId4"/>
+    <sheet name="Tomcat安装" sheetId="7" r:id="rId5"/>
+    <sheet name="PostgreSQL安装" sheetId="8" r:id="rId6"/>
+    <sheet name="ZooKeeper安装" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="637">
   <si>
     <t>Docker引擎的下载与安装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -562,90 +563,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>操作步骤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  4 postgreSQL9.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  6 Dubbo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  1 启动docker引擎服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  2 运行镜像,暴露tomcat 和 zooKeeper的端口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  3 进入container之后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.1 启动tomcat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      到tomcat的安装路劲的bin目录下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.2 到zooKeeper的安装路劲的bin目录下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>./startup.sh</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sudo docker service start</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sudo docker -i -t -p 9000:8080 -p 9100:2181 centos/eminEnv /bin/bash</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">      </t>
     </r>
@@ -662,47 +579,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    # 外部机器访问zooKepper  主机ip:9100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    # 外部机器访问tomcat 主机ip:9000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    # 假设tomcat的端口采用默认的8080,则在run image的时候暴露一个可用的端口(如9000)映射到运行后的container中的8080端口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    # 外部即可通过主机的ip和暴露的端口9000,访问容器的8080端口,即tomcat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>镜像centos/eminEnv 构成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  3 tomcat 8.0.36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  5 zooKeeper-3.4.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  2 jdk 1.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  1 centos官方编译基础环境</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  # 官方文档: https://docs.docker.com/engine/installation/linux/centos/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    # 其它程序,如zooKeeper(默认端口2181)配置类似</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1542,10 +1419,6 @@
     <t>export PATH</t>
   </si>
   <si>
-    <t>PATH=$PATH:$HOME/bin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">       # 再次执行 psql --version</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1579,18 +1452,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">      useradd postgres</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">      # 这个 postgres 用户是专门用来操作数据库的,我们不需要这个物理用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">      vi /etc/passwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">      rm -r /home/postgres</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1649,14 +1514,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">      # 切换到postgres用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      su - postgres</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">      # 初始化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1768,14 +1625,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">      exit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      cd /usr/local/postgresql-9.3.14/contrib/start-scripts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-rw-r--r-- 1 1107 1107 1529 Aug  8 20:31 freebsd</t>
   </si>
   <si>
@@ -1806,39 +1655,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">      # 复制start-scripts/linux 脚本到 /etc/init.d 目录下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">      chmod +x /etc/init.d/posgresql</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">      # 添加可执行权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   Apache-tomcat 8.0.36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   PostgreSQL 9.3.x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   ZooKeeper 3.4.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标镜像集成环境</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   Centos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   JDK1.7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1919,6 +1740,490 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">      psql --version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  8 提交对镜像的修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      最后有一行 postgres:x:1000:1000::/home/postgres:/bin/bash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      修改为     postgres:x:1000:1000::/usr/local/pgsql:/bin/bash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      mkdir /usr/local/pgsql/data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      /usr/local/pgsql/bin/initdb -D /usr/local/pgsql/data/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    /usr/local/pgsql/bin/postgres -D /usr/local/pgsql/data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  6.5 创建启动数据库脚本(可选)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  6.6 启动数据库服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      # 如果提示 pg_ctl: no database directory specified and environment variable PGDATA unset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      # 则需要配置PGDATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-bash-4.2$ ./pg_ctl status</t>
+  </si>
+  <si>
+    <t>pg_ctl: server is running (PID: 84)</t>
+  </si>
+  <si>
+    <t>/usr/local/pgsql/bin/postgres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        # 出现以下信息说明数据库服务已经启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psql (9.3.14)</t>
+  </si>
+  <si>
+    <t>Type "help" for help.</t>
+  </si>
+  <si>
+    <t>(4 rows)</t>
+  </si>
+  <si>
+    <t>You are now connected to database "testDb" as user "postgres".</t>
+  </si>
+  <si>
+    <t>CREATE TABLE</t>
+  </si>
+  <si>
+    <t>(1 row)</t>
+  </si>
+  <si>
+    <t>INSERT 0 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> id |         name         </t>
+  </si>
+  <si>
+    <t>----+----------------------</t>
+  </si>
+  <si>
+    <t>postgres=# \q</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  # </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>外部主机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>宿主机器的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ip:18080</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 来访问container的tomcat(备注:要在运行的容器中启动tomcat服务)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  # 在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>宿主机器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>打开浏览器,输入container内部ip 172.17.0.2:8080 ,显示熟悉的tomcat界面说明成功了</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tar -xgf zookeeper-3.4.8.tar.gz</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 移动解压后的zookeeper-3.4.8 到相应的目录,如/usr/local</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mv zookeeper-3.4.8 /usr/local/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 配置zookeeper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  cd /usr/local/zookeeper-3.4.8/conf/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  mv zoo_sample.cfg zoo.cfg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 启动zookeeper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  cd /usr/local/zookeeper-3.4.8/bin/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ./zkServer.sh start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  # 看到以下信息说明启动成功了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZooKeeper JMX enabled by default</t>
+  </si>
+  <si>
+    <t>Using config: /usr/local/zookeeper-3.4.8/bin/../conf/zoo.cfg</t>
+  </si>
+  <si>
+    <t>Starting zookeeper ... STARTED</t>
+  </si>
+  <si>
+    <r>
+      <t>[root@ec41b0564b7e bin]#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ./zkServer.sh start</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  # 在启动images的时候,container对外暴露的9081映射为2181,该端口是zooKeeper的默认端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  # 由于需要在外部的机器(不是宿主机器)去访问,则需要知道该container的宿主机器的ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  # 所在在container的宿主机器通过命令 ifocnfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  # 本次测试,宿主机器的ip 是192.168.230.142</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  # 则在外部机器(如局域网内其他机器)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     telnet 192.168.230.142 9081</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trying 192.168.230.142...</t>
+  </si>
+  <si>
+    <t>Connected to 192.168.230.142.</t>
+  </si>
+  <si>
+    <t>Escape character is '^]'.</t>
+  </si>
+  <si>
+    <t>$ telnet 192.168.230.142 9081</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     # 显示如下信息,说明连接成功了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 关闭zooKeeper服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stopping zookeeper ... STOPPED</t>
+  </si>
+  <si>
+    <t>[root@ec41b0564b7e bin]# ./zkServer.sh stop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   ./zkServer.sh stop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Centos基础服务依赖包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     yum -y install initscripts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  1 centos/emin-gui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  2 centos/emin-service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  3 centos/emin-zookeeer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 部署应用的环境配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     # service 一般在/usr/sbin/service中,如果目录中无service,则在执行service的时候报service command not found</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  11 重启容器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     # 有时候,我们不得不退出容器,或者需要commit保存,或者暂时退出,如果再次run一个image,则会重新开一个容器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     # 所以我们需要启动之前的容器,这样不会因为退出而白费之前的工作(当然可以commit得到新镜像,然后run)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     docker start container_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     docker attach container_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     # 重启容器会保留run image 时候的配置,比如暴露的端口,挂在的目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  12 删除容器/镜像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     docker rm container_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     docker rmi imageName 或者 docker rmi images_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     # 镜像和容器是占用磁盘资源的,必要时需要做删除操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     # 批量删除容器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       docker rm container_id container_id container_id …</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       # 如果容器很多,想一次性全部删除,则可以先用命令查出所有的contianer,再执行docker rm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         docker rm $(docker ps -a -q)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         # docker ps -a 是查看所有的容器,-q 是返回容器的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         # 更多options 通过 docker ps --help 查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  12 从容器中拷贝文件到宿主机器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     docker cp 129d63e58930:/home/download/soft/temp.txt /home/temp/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     # 将id为129d63e58930的容器中的/home/download/soft/temp.txt 文件拷贝到本地的/home/temp/ 目录下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   ssh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     yum -y install openssh-server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     # 启动ssh服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       /etc/init.d/sshd start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     # 外部连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       ssh userName@ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   ifconfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     yum -y install net-tools</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   telnet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     yum -y install telnet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PATH=$PATH:$HOME/bin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">       # 在PATH 的后面加上psql的bin 目录,即 </t>
     </r>
@@ -1936,208 +2241,209 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">      psql --version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  8 提交对镜像的修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      最后有一行 postgres:x:1000:1000::/home/postgres:/bin/bash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      修改为     postgres:x:1000:1000::/usr/local/pgsql:/bin/bash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      mkdir /usr/local/pgsql/data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      /usr/local/pgsql/bin/initdb -D /usr/local/pgsql/data/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    /usr/local/pgsql/bin/postgres -D /usr/local/pgsql/data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  6.5 创建启动数据库脚本(可选)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  6.6 启动数据库服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      su - postgres</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      cd /usr/local/pgsql/bin/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      ./pg_ctl status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      # 如果提示 pg_ctl: no database directory specified and environment variable PGDATA unset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      # 则需要配置PGDATA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        vi /home/postgres/.bash_profile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">-bash-4.2$ cat /home/postgres/.bash_profile </t>
-  </si>
-  <si>
-    <t>PATH=$PATH:$HOME/.local/bin:$HOME/bin</t>
+    <t xml:space="preserve">      useradd postgres</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      vi /etc/passwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      exit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      cd /usr/local/postgresql-9.3.14/contrib/start-scripts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PGDATA=/usr/local/pgsql/data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>export PGDATA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        souce /home/postgres/.bash_profile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      # 以上环境有待改进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-bash-4.2$ ./pg_ctl status</t>
-  </si>
-  <si>
-    <t>pg_ctl: server is running (PID: 84)</t>
-  </si>
-  <si>
-    <t>/usr/local/pgsql/bin/postgres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        # 再次输入命令 ./pg_ctl status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        # 出现以下信息说明数据库服务已经启动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      # 以下为创建数据库,进入数据库,以及创建数据表操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">-bash-4.2$ ./createdb testDb </t>
-  </si>
-  <si>
-    <t>-bash-4.2$ psql testDb</t>
-  </si>
-  <si>
-    <t>psql (9.3.14)</t>
-  </si>
-  <si>
-    <t>Type "help" for help.</t>
-  </si>
-  <si>
-    <t>testDb=# \l</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                             List of databases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Name    |  Owner   | Encoding  | Collate | Ctype |   Access privileges   </t>
-  </si>
-  <si>
-    <t>-----------+----------+-----------+---------+-------+-----------------------</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> postgres  | postgres | SQL_ASCII | C       | C     | </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> template0 | postgres | SQL_ASCII | C       | C     | =c/postgres          +</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           |          |           |         |       | postgres=CTc/postgres</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> template1 | postgres | SQL_ASCII | C       | C     | =c/postgres          +</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> testDb    | postgres | SQL_ASCII | C       | C     | </t>
-  </si>
-  <si>
-    <t>(4 rows)</t>
-  </si>
-  <si>
-    <t>testDb=# \c testDb</t>
-  </si>
-  <si>
-    <t>You are now connected to database "testDb" as user "postgres".</t>
-  </si>
-  <si>
-    <t>testDb=# \c postgres</t>
-  </si>
-  <si>
-    <t>You are now connected to database "postgres" as user "postgres".</t>
-  </si>
-  <si>
-    <t>postgres=# create table table1(id int4,name char(20));</t>
-  </si>
-  <si>
-    <t>CREATE TABLE</t>
-  </si>
-  <si>
-    <t>postgres=# \d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         List of relations</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Schema |  Name  | Type  |  Owner   </t>
-  </si>
-  <si>
-    <t>--------+--------+-------+----------</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> public | table1 | table | postgres</t>
-  </si>
-  <si>
-    <t>(1 row)</t>
-  </si>
-  <si>
-    <t>postgres=# insert into table1 values(1,'sam');</t>
-  </si>
-  <si>
-    <t>INSERT 0 1</t>
-  </si>
-  <si>
-    <t>postgres=# select * from table1;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> id |         name         </t>
-  </si>
-  <si>
-    <t>----+----------------------</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1 | sam                 </t>
-  </si>
-  <si>
-    <t>postgres=# \q</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  # </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  13 给镜像打tag(标签)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     # 所以latest 为标签的版本并以定义是最新的版本(比如只做了一部分,先commit保存而已)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     # commit一个容器,如果没有加上标签,则docker引擎默认打上 latest 标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     # 当某个镜像,经过测试认为比较稳定了,可以打上标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       docker tag -f image image:v1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># 打tag之前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># 执行打tag命令 docker tag -f centos/emin_gui:latest centos/emin_gui:v1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>centos/emin_gui              latest              439d487a11ef        2 days ago          509.3 MB</t>
+  </si>
+  <si>
+    <t>centos/emin_gui              v1.0                439d487a11ef        2 days ago          509.3 MB</t>
+  </si>
+  <si>
+    <t># docker images</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPOSITORY                   TAG                 IMAGE ID            CREATED             VIRTUAL SIZE</t>
+  </si>
+  <si>
+    <t># 从结果可以看得出,打tag,只是产生了一个副本,id，大小等属性都是一致的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       # 运行镜像不带标签,或默认运行 latest 版本的.如果要执行某个tag的版本,则把centos 变成  centos:v1.2 (v1.2是个tag)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      # 需要注意的是,在run一个镜像的时候,如果没有在镜像上加上标签,则默认是运行latest的版本的,以下两个命令运行的是同一个镜像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        docker run -i -t centos/emin_gui /bin/bash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        docker run -i -t centos/emin_gui:latest /bin/bash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      # 下面的命令则是运行v1.0的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        docker run -i -t centos/emin_gui:v1.0 /bin/bash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      # 衍生,在commit的同时也可以直接打上标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        docker commit container_id centos/emin_gui:v2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      # 如果不加标签,并且标签为latest的镜像,则会报错,Unable to find image .. locally</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>export CLASSPATH=.:$JRE_HOME/bin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  # 确定java的安装目录可以用 whereis java ,在列出的路径中可以逐个确定(因为有些只是个链接)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      # 如果采用 adduser postgres 就不存在这个目录(这里是为了之后测试一些环境变量问题)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      su postgres</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      # 切换到postgres用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      # 这一步需要特别注意了,用 su - postgres ,会登录系统的用户postgres,并且把postgres的环境变量带过来,即/home/postgres/.bash_profile中设置的环境变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      # 但是我们之前把这个目录删除了,也不需要这个系统用户(只用做数据库管理就够了),所以用su postgres,保留之前的环境,即/etc/profile 中的环境变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      # 复制start-scripts/linux 脚本到 /etc/init.d 目录下,并命名为postgresql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        service postgresql start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      # 方式1 (推荐)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  4 centos/emin-postgresql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    2 jdk 1.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    1 centos官方编译基础环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    3 tomcat 8.0.36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    4 postgreSQL9.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    5 zooKeeper-3.4.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  A 集成环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  B 操作步骤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gui镜像使用说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    1 启动docker引擎服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      # tomcat端口默认8080,则在run image的时候暴露一个可用的端口(如18080)映射到运行后的container中的8080端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      # 外部即可通过主机的ip和暴露的端口18080,访问容器的8080端口,即tomcat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          # 到tomcat的安装路劲的bin目录下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> cd /usr/local/tomcat/bin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">          </t>
     </r>
     <r>
       <rPr>
@@ -2147,63 +2453,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>外部主机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>通过</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>宿主机器的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF3366FF"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ip:18080</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 来访问container的tomcat(备注:要在运行的容器中启动tomcat服务)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  # 在</t>
+      <t>./startup.sh</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         </t>
     </r>
     <r>
       <rPr>
@@ -2213,23 +2469,77 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>宿主机器</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>打开浏览器,输入container内部ip 172.17.0.2:8080 ,显示熟悉的tomcat界面说明成功了</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  </t>
+      <t>source /etc/profile</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          # 将webapp的 war 包拷贝到webapps目录下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zookeeper镜像使用说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     到zooKeeper的安装路劲的bin目录下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     端口 2181</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    2 载入emin-gui镜像源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      docker images</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      # 查看镜像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      # 如果无centos/emin-gui,则需要加载,如centos_emin_gui.tar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      # 暴露多个端口,则用多个 -p port:port -p port:port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    4 进入container之后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      # 镜像运行成功后,终端会环境会变成[root@container_id]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      4.1 加载环境变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    3 运行镜像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      # 为了方便后续部署应用,可将本地的一个目录挂载到容器中:用 -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      4.2 部署应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      4.3 启动tomcat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
     </r>
     <r>
       <rPr>
@@ -2239,17 +2549,60 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>tar -xgf zookeeper-3.4.8.tar.gz</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 移动解压后的zookeeper-3.4.8 到相应的目录,如/usr/local</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  </t>
+      <t>docker service start</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    5 访问容器的应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      5.1 确认容器的宿主机器的ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          ifconfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          # 得到ip,如192.168.0.83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      5.2 浏览器访问应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         192.168.0.83:18080/ewm/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         # ewm是部署在容器中的应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp /root/share/ewm.war /usr/local/tomcat/webapps/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      docker load &lt; /root/docker/centos_emin_gui.tar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    // /root/docker 是宿主机器的一个目录</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
     </r>
     <r>
       <rPr>
@@ -2259,121 +2612,495 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>mv zookeeper-3.4.8 /usr/local/</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 配置zookeeper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  cd /usr/local/zookeeper-3.4.8/conf/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  mv zoo_sample.cfg zoo.cfg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7 启动zookeeper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  cd /usr/local/zookeeper-3.4.8/bin/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  ./zkServer.sh start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  # 看到以下信息说明启动成功了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZooKeeper JMX enabled by default</t>
-  </si>
-  <si>
-    <t>Using config: /usr/local/zookeeper-3.4.8/bin/../conf/zoo.cfg</t>
-  </si>
-  <si>
-    <t>Starting zookeeper ... STARTED</t>
-  </si>
-  <si>
-    <r>
-      <t>[root@ec41b0564b7e bin]#</t>
+      <t>docker -i -t -p 18080:8080 -v /root/docker:/root/share centos/emin-gui /bin/bash</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      # /root/share 是启动容器后的一个目录,映射的是宿主机器的/root/docker 目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postgresql镜像使用说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service镜像使用说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    docker run -it centos/emin_postgresql_1.0 /bin/bash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    source /etc/profile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    psql --version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  1 运行镜像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  2 加载环境变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  3 启动postgresql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    # 确认版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.1 启动postgresql数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        # 如果有 Failed to get D-Bus connection: Operation not permitted这样的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        # 可以忽略,只要数据库状态是启动就ok了.这个错误是docker的一个bug,在centos7.2才解决的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.2 确认数据库状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        service postgresql status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pg_ctl: server is running (PID: 110)</t>
+  </si>
+  <si>
+    <t>/usr/local/pgsql/bin/postgres "-D" "/usr/local/pgsql/data"</t>
+  </si>
+  <si>
+    <t>[root@b7519ed9bc06 /]# service postgresql status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         # server is runnig 表示成功了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  4 切换postgres用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    su postgres</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  5 连接数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    psql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[root@b7519ed9bc06 /]# su postgres</t>
+  </si>
+  <si>
+    <t>bash-4.2$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bash-4.2$ psql</t>
+  </si>
+  <si>
+    <t>postgres=# \l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                  List of databases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Name    |  Owner   | Encoding |   Collate   |    Ctype    |   Access privileges   </t>
+  </si>
+  <si>
+    <t>-----------+----------+----------+-------------+-------------+-----------------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> postgres  | postgres | UTF8     | en_US.UTF-8 | en_US.UTF-8 | </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> template0 | postgres | UTF8     | en_US.UTF-8 | en_US.UTF-8 | =c/postgres          +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           |          |          |             |             | postgres=CTc/postgres</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> template1 | postgres | UTF8     | en_US.UTF-8 | en_US.UTF-8 | =c/postgres          +</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> testDb    | postgres | UTF8     | en_US.UTF-8 | en_US.UTF-8 | </t>
+  </si>
+  <si>
+    <t xml:space="preserve">postgres=# </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    # psql 不加目标数据库,则默认连接与用户postgres同名的数据库,即postgres</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     # 切换目标数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postgres=# \c testDb</t>
+  </si>
+  <si>
+    <t>testDb=# \d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          List of relations</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Schema |   Name   | Type  |  Owner   </t>
+  </si>
+  <si>
+    <t>--------+----------+-------+----------</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public | tbl_test | table | postgres</t>
+  </si>
+  <si>
+    <t>testDb=# select * from tbl_test;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1 | emin                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">testDb=# </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       \c testDb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       # testDb 是已经创建的一个测试数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      # 该方式是以完成步骤6.5的基础之上的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      # 方式2(学习用)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      # 该方式需要手动配置环境变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  6.7 创建数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        vi /etc/profile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        souce /etc/profile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        # 再次输入命令 ./pg_ctl status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        # 加入以下环境变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        su postgres</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        cd /usr/local/pgsql/bin/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        ./pg_ctl status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    # 备注,不要用 su - postgres 来切换用户,详见 工作簿[PostgreSQL安装]的6.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3 rows)</t>
+  </si>
+  <si>
+    <t>postgres=# \</t>
+  </si>
+  <si>
+    <t>Invalid command \. Try \? for help.</t>
+  </si>
+  <si>
+    <t>bash-4.2$ pwd</t>
+  </si>
+  <si>
+    <t>/usr/local/pgsql/bin</t>
+  </si>
+  <si>
+    <t>bash-4.2$ createdb testDb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">bash-4.2$ </t>
     </r>
     <r>
       <rPr>
-        <sz val="14"/>
+        <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> ./zkServer.sh start</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8 验证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  # 在启动images的时候,container对外暴露的9081映射为2181,该端口是zooKeeper的默认端口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  # 由于需要在外部的机器(不是宿主机器)去访问,则需要知道该container的宿主机器的ip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  # 所在在container的宿主机器通过命令 ifocnfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  # 本次测试,宿主机器的ip 是192.168.230.142</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  # 则在外部机器(如局域网内其他机器)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     telnet 192.168.230.142 9081</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trying 192.168.230.142...</t>
-  </si>
-  <si>
-    <t>Connected to 192.168.230.142.</t>
-  </si>
-  <si>
-    <t>Escape character is '^]'.</t>
-  </si>
-  <si>
-    <t>$ telnet 192.168.230.142 9081</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     # 显示如下信息,说明连接成功了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9 关闭zooKeeper服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stopping zookeeper ... STOPPED</t>
-  </si>
-  <si>
-    <t>[root@ec41b0564b7e bin]# ./zkServer.sh stop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   ./zkServer.sh stop</t>
+      <t>createdb testDb</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postgres=# create database testDb2;</t>
+  </si>
+  <si>
+    <t>CREATE DATABASE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> testdb2   | postgres | UTF8     | en_US.UTF-8 | en_US.UTF-8 | </t>
+  </si>
+  <si>
+    <t>(5 rows)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        # 相关的命令在pgsql/bin 下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        # 既然是执行SQL语句的方式,那么首先要进入数据库内部,psql默认连接的是postgres 数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bash-4.2$ psql testDb</t>
+  </si>
+  <si>
+    <t>No relations found.</t>
+  </si>
+  <si>
+    <t>testDb=# create table tbl_user(id int4,name varchar(20));</t>
+  </si>
+  <si>
+    <t>testDb=# insert into tbl_user values(1,'sam');</t>
+  </si>
+  <si>
+    <t>testDb=# select * from tbl_user;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> id | name </t>
+  </si>
+  <si>
+    <t>----+------</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1 | sam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6.8 创建数据表,插入数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  6.9 切换数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testDb=# \c testdb2</t>
+  </si>
+  <si>
+    <t>You are now connected to database "testdb2" as user "postgres".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testdb2=# </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6.10 退出postgresql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testdb2=# \q</t>
+  </si>
+  <si>
+    <t>bash-4.2$ exit</t>
+  </si>
+  <si>
+    <t>exit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[root@b7519ed9bc06 /]# </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      A. postgresql的命令方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      B. SQL方式创建数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  6.10 删除数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       A postgresql命令方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         # 命令在/usr/local/pgsql/bin 下，dropdb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">bash-4.2$ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dropdb testdb2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       B SQL命令方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postgres=# drop database testDb;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DROP DATABASE</t>
+  </si>
+  <si>
+    <t>export JRE_HOME=/usr/lib/jvm/jre-1.7.0-openjdk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  # 得到,/usr/lib/jvm/jre-1.7.0-openjdk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  vi/etc/profile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># 在export 之前加入如下代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PATH=$JRE_HOME/bin:$PATH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 远程访问配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    vi postgresql.conf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    cd /usr/local/pgsql/data/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listen_addresses = '*'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># 加入以下代码,文件中 listen_addresses = 'localhost' 改为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    vi pg_hba.conf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># 可以在文件的末尾加上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>host    all             all             0.0.0.0/0            trust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   7.1 修改配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.2 验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        # 运行时镜像的时候,暴露端口15432,映射5432(postgresql默认端口)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          docker run -it -p 15432:5432 centos/emin-postgresql:v1.1 /bin/bash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          service postgresql start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        获取该container所在的宿主机器的ip,如192.168.0.89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       # 在局域网内的其它主机链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       # 如Navicat新建连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         ip:192.168.0.89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         port:15432</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         user:postgres</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         密码不填(因为以上并未设置postgres的密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2493,16 +3220,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <strike/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <sz val="14"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2516,7 +3241,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2524,8 +3249,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="169">
+  <cellStyleXfs count="263">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2695,8 +3500,102 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2707,11 +3606,22 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="169">
+  <cellStyles count="263">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2796,6 +3706,53 @@
     <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="261" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2880,6 +3837,53 @@
     <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="262" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2893,18 +3897,18 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2917,7 +3921,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1562100" y="16967200"/>
+          <a:off x="1562100" y="16421100"/>
           <a:ext cx="9753600" cy="1270000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3338,11 +4342,951 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B146"/>
+  <dimension ref="B2:L166"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="L119" sqref="L119"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B121" sqref="B121"/>
     </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="5" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="5" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="C48" s="5" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="C52" s="5" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57" s="5" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="B59" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="B61" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="B62" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9">
+      <c r="B97" s="5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9">
+      <c r="B99" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9">
+      <c r="B100" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9">
+      <c r="B102" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9">
+      <c r="B103" s="5" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9">
+      <c r="B105" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9">
+      <c r="C106" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="D106" s="13"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="13"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="13"/>
+      <c r="I106" s="14"/>
+    </row>
+    <row r="107" spans="2:9">
+      <c r="C107" s="15" t="s">
+        <v>524</v>
+      </c>
+      <c r="D107" s="16"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="16"/>
+      <c r="I107" s="17"/>
+    </row>
+    <row r="108" spans="2:9">
+      <c r="C108" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="D108" s="16"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="16"/>
+      <c r="G108" s="16"/>
+      <c r="H108" s="16"/>
+      <c r="I108" s="17"/>
+    </row>
+    <row r="109" spans="2:9">
+      <c r="C109" s="18"/>
+      <c r="D109" s="19"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="19"/>
+      <c r="G109" s="19"/>
+      <c r="H109" s="19"/>
+      <c r="I109" s="20"/>
+    </row>
+    <row r="112" spans="2:9">
+      <c r="B112" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="114" spans="2:12">
+      <c r="B114" s="5" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="116" spans="2:12">
+      <c r="C116" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="D116" s="13"/>
+      <c r="E116" s="13"/>
+      <c r="F116" s="13"/>
+      <c r="G116" s="13"/>
+      <c r="H116" s="13"/>
+      <c r="I116" s="14"/>
+    </row>
+    <row r="117" spans="2:12">
+      <c r="C117" s="15" t="s">
+        <v>533</v>
+      </c>
+      <c r="D117" s="16"/>
+      <c r="E117" s="16"/>
+      <c r="F117" s="16"/>
+      <c r="G117" s="16"/>
+      <c r="H117" s="16"/>
+      <c r="I117" s="17"/>
+    </row>
+    <row r="118" spans="2:12">
+      <c r="C118" s="18"/>
+      <c r="D118" s="19"/>
+      <c r="E118" s="19"/>
+      <c r="F118" s="19"/>
+      <c r="G118" s="19"/>
+      <c r="H118" s="19"/>
+      <c r="I118" s="20"/>
+    </row>
+    <row r="119" spans="2:12">
+      <c r="C119" s="16"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="16"/>
+      <c r="F119" s="16"/>
+      <c r="G119" s="16"/>
+      <c r="H119" s="16"/>
+      <c r="I119" s="16"/>
+    </row>
+    <row r="120" spans="2:12">
+      <c r="B120" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C120" s="16"/>
+      <c r="D120" s="16"/>
+      <c r="E120" s="16"/>
+      <c r="F120" s="16"/>
+      <c r="G120" s="16"/>
+      <c r="H120" s="16"/>
+      <c r="I120" s="16"/>
+    </row>
+    <row r="122" spans="2:12">
+      <c r="B122" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="124" spans="2:12">
+      <c r="B124" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="125" spans="2:12">
+      <c r="B125" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="127" spans="2:12">
+      <c r="C127" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="D127" s="13"/>
+      <c r="E127" s="13"/>
+      <c r="F127" s="13"/>
+      <c r="G127" s="13"/>
+      <c r="H127" s="13"/>
+      <c r="I127" s="13"/>
+      <c r="J127" s="13"/>
+      <c r="K127" s="13"/>
+      <c r="L127" s="14"/>
+    </row>
+    <row r="128" spans="2:12">
+      <c r="C128" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="D128" s="16"/>
+      <c r="E128" s="16"/>
+      <c r="F128" s="16"/>
+      <c r="G128" s="16"/>
+      <c r="H128" s="16"/>
+      <c r="I128" s="16"/>
+      <c r="J128" s="16"/>
+      <c r="K128" s="16"/>
+      <c r="L128" s="17"/>
+    </row>
+    <row r="129" spans="3:12">
+      <c r="C129" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="D129" s="16"/>
+      <c r="E129" s="16"/>
+      <c r="F129" s="16"/>
+      <c r="G129" s="16"/>
+      <c r="H129" s="16"/>
+      <c r="I129" s="16"/>
+      <c r="J129" s="16"/>
+      <c r="K129" s="16"/>
+      <c r="L129" s="17"/>
+    </row>
+    <row r="130" spans="3:12">
+      <c r="C130" s="15"/>
+      <c r="D130" s="16"/>
+      <c r="E130" s="16"/>
+      <c r="F130" s="16"/>
+      <c r="G130" s="16"/>
+      <c r="H130" s="16"/>
+      <c r="I130" s="16"/>
+      <c r="J130" s="16"/>
+      <c r="K130" s="16"/>
+      <c r="L130" s="17"/>
+    </row>
+    <row r="131" spans="3:12">
+      <c r="C131" s="15" t="s">
+        <v>535</v>
+      </c>
+      <c r="D131" s="16"/>
+      <c r="E131" s="16"/>
+      <c r="F131" s="16"/>
+      <c r="G131" s="16"/>
+      <c r="H131" s="16"/>
+      <c r="I131" s="16"/>
+      <c r="J131" s="16"/>
+      <c r="K131" s="16"/>
+      <c r="L131" s="17"/>
+    </row>
+    <row r="132" spans="3:12">
+      <c r="C132" s="15" t="s">
+        <v>536</v>
+      </c>
+      <c r="D132" s="16"/>
+      <c r="E132" s="16"/>
+      <c r="F132" s="16"/>
+      <c r="G132" s="16"/>
+      <c r="H132" s="16"/>
+      <c r="I132" s="16"/>
+      <c r="J132" s="16"/>
+      <c r="K132" s="16"/>
+      <c r="L132" s="17"/>
+    </row>
+    <row r="133" spans="3:12">
+      <c r="C133" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="D133" s="16"/>
+      <c r="E133" s="16"/>
+      <c r="F133" s="16"/>
+      <c r="G133" s="16"/>
+      <c r="H133" s="16"/>
+      <c r="I133" s="16"/>
+      <c r="J133" s="16"/>
+      <c r="K133" s="16"/>
+      <c r="L133" s="17"/>
+    </row>
+    <row r="134" spans="3:12">
+      <c r="C134" s="15" t="s">
+        <v>538</v>
+      </c>
+      <c r="D134" s="16"/>
+      <c r="E134" s="16"/>
+      <c r="F134" s="16"/>
+      <c r="G134" s="16"/>
+      <c r="H134" s="16"/>
+      <c r="I134" s="16"/>
+      <c r="J134" s="16"/>
+      <c r="K134" s="16"/>
+      <c r="L134" s="17"/>
+    </row>
+    <row r="135" spans="3:12">
+      <c r="C135" s="15" t="s">
+        <v>539</v>
+      </c>
+      <c r="D135" s="16"/>
+      <c r="E135" s="16"/>
+      <c r="F135" s="16"/>
+      <c r="G135" s="16"/>
+      <c r="H135" s="16"/>
+      <c r="I135" s="16"/>
+      <c r="J135" s="16"/>
+      <c r="K135" s="16"/>
+      <c r="L135" s="17"/>
+    </row>
+    <row r="136" spans="3:12">
+      <c r="C136" s="15" t="s">
+        <v>540</v>
+      </c>
+      <c r="D136" s="16"/>
+      <c r="E136" s="16"/>
+      <c r="F136" s="16"/>
+      <c r="G136" s="16"/>
+      <c r="H136" s="16"/>
+      <c r="I136" s="16"/>
+      <c r="J136" s="16"/>
+      <c r="K136" s="16"/>
+      <c r="L136" s="17"/>
+    </row>
+    <row r="137" spans="3:12">
+      <c r="C137" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="D137" s="16"/>
+      <c r="E137" s="16"/>
+      <c r="F137" s="16"/>
+      <c r="G137" s="16"/>
+      <c r="H137" s="16"/>
+      <c r="I137" s="16"/>
+      <c r="J137" s="16"/>
+      <c r="K137" s="16"/>
+      <c r="L137" s="17"/>
+    </row>
+    <row r="138" spans="3:12">
+      <c r="C138" s="15" t="s">
+        <v>542</v>
+      </c>
+      <c r="D138" s="16"/>
+      <c r="E138" s="16"/>
+      <c r="F138" s="16"/>
+      <c r="G138" s="16"/>
+      <c r="H138" s="16"/>
+      <c r="I138" s="16"/>
+      <c r="J138" s="16"/>
+      <c r="K138" s="16"/>
+      <c r="L138" s="17"/>
+    </row>
+    <row r="139" spans="3:12">
+      <c r="C139" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="D139" s="16"/>
+      <c r="E139" s="16"/>
+      <c r="F139" s="16"/>
+      <c r="G139" s="16"/>
+      <c r="H139" s="16"/>
+      <c r="I139" s="16"/>
+      <c r="J139" s="16"/>
+      <c r="K139" s="16"/>
+      <c r="L139" s="17"/>
+    </row>
+    <row r="140" spans="3:12">
+      <c r="C140" s="15" t="s">
+        <v>543</v>
+      </c>
+      <c r="D140" s="16"/>
+      <c r="E140" s="16"/>
+      <c r="F140" s="16"/>
+      <c r="G140" s="16"/>
+      <c r="H140" s="16"/>
+      <c r="I140" s="16"/>
+      <c r="J140" s="16"/>
+      <c r="K140" s="16"/>
+      <c r="L140" s="17"/>
+    </row>
+    <row r="141" spans="3:12">
+      <c r="C141" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="D141" s="16"/>
+      <c r="E141" s="16"/>
+      <c r="F141" s="16"/>
+      <c r="G141" s="16"/>
+      <c r="H141" s="16"/>
+      <c r="I141" s="16"/>
+      <c r="J141" s="16"/>
+      <c r="K141" s="16"/>
+      <c r="L141" s="17"/>
+    </row>
+    <row r="142" spans="3:12">
+      <c r="C142" s="15"/>
+      <c r="D142" s="16"/>
+      <c r="E142" s="16"/>
+      <c r="F142" s="16"/>
+      <c r="G142" s="16"/>
+      <c r="H142" s="16"/>
+      <c r="I142" s="16"/>
+      <c r="J142" s="16"/>
+      <c r="K142" s="16"/>
+      <c r="L142" s="17"/>
+    </row>
+    <row r="143" spans="3:12">
+      <c r="C143" s="18" t="s">
+        <v>544</v>
+      </c>
+      <c r="D143" s="19"/>
+      <c r="E143" s="19"/>
+      <c r="F143" s="19"/>
+      <c r="G143" s="19"/>
+      <c r="H143" s="19"/>
+      <c r="I143" s="19"/>
+      <c r="J143" s="19"/>
+      <c r="K143" s="19"/>
+      <c r="L143" s="20"/>
+    </row>
+    <row r="146" spans="2:12">
+      <c r="B146" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="148" spans="2:12">
+      <c r="B148" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="149" spans="2:12">
+      <c r="B149" s="5" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="151" spans="2:12">
+      <c r="C151" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="D151" s="13"/>
+      <c r="E151" s="13"/>
+      <c r="F151" s="13"/>
+      <c r="G151" s="13"/>
+      <c r="H151" s="13"/>
+      <c r="I151" s="13"/>
+      <c r="J151" s="13"/>
+      <c r="K151" s="13"/>
+      <c r="L151" s="14"/>
+    </row>
+    <row r="152" spans="2:12">
+      <c r="C152" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="D152" s="16"/>
+      <c r="E152" s="16"/>
+      <c r="F152" s="16"/>
+      <c r="G152" s="16"/>
+      <c r="H152" s="16"/>
+      <c r="I152" s="16"/>
+      <c r="J152" s="16"/>
+      <c r="K152" s="16"/>
+      <c r="L152" s="17"/>
+    </row>
+    <row r="153" spans="2:12">
+      <c r="C153" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="D153" s="16"/>
+      <c r="E153" s="16"/>
+      <c r="F153" s="16"/>
+      <c r="G153" s="16"/>
+      <c r="H153" s="16"/>
+      <c r="I153" s="16"/>
+      <c r="J153" s="16"/>
+      <c r="K153" s="16"/>
+      <c r="L153" s="17"/>
+    </row>
+    <row r="154" spans="2:12">
+      <c r="C154" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="D154" s="16"/>
+      <c r="E154" s="16"/>
+      <c r="F154" s="16"/>
+      <c r="G154" s="16"/>
+      <c r="H154" s="16"/>
+      <c r="I154" s="16"/>
+      <c r="J154" s="16"/>
+      <c r="K154" s="16"/>
+      <c r="L154" s="17"/>
+    </row>
+    <row r="155" spans="2:12">
+      <c r="C155" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="D155" s="16"/>
+      <c r="E155" s="16"/>
+      <c r="F155" s="16"/>
+      <c r="G155" s="16"/>
+      <c r="H155" s="16"/>
+      <c r="I155" s="16"/>
+      <c r="J155" s="16"/>
+      <c r="K155" s="16"/>
+      <c r="L155" s="17"/>
+    </row>
+    <row r="156" spans="2:12">
+      <c r="C156" s="15" t="s">
+        <v>551</v>
+      </c>
+      <c r="D156" s="16"/>
+      <c r="E156" s="16"/>
+      <c r="F156" s="16"/>
+      <c r="G156" s="16"/>
+      <c r="H156" s="16"/>
+      <c r="I156" s="16"/>
+      <c r="J156" s="16"/>
+      <c r="K156" s="16"/>
+      <c r="L156" s="17"/>
+    </row>
+    <row r="157" spans="2:12">
+      <c r="C157" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="D157" s="16"/>
+      <c r="E157" s="16"/>
+      <c r="F157" s="16"/>
+      <c r="G157" s="16"/>
+      <c r="H157" s="16"/>
+      <c r="I157" s="16"/>
+      <c r="J157" s="16"/>
+      <c r="K157" s="16"/>
+      <c r="L157" s="17"/>
+    </row>
+    <row r="158" spans="2:12">
+      <c r="C158" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="D158" s="16"/>
+      <c r="E158" s="16"/>
+      <c r="F158" s="16"/>
+      <c r="G158" s="16"/>
+      <c r="H158" s="16"/>
+      <c r="I158" s="16"/>
+      <c r="J158" s="16"/>
+      <c r="K158" s="16"/>
+      <c r="L158" s="17"/>
+    </row>
+    <row r="159" spans="2:12">
+      <c r="C159" s="15"/>
+      <c r="D159" s="16"/>
+      <c r="E159" s="16"/>
+      <c r="F159" s="16"/>
+      <c r="G159" s="16"/>
+      <c r="H159" s="16"/>
+      <c r="I159" s="16"/>
+      <c r="J159" s="16"/>
+      <c r="K159" s="16"/>
+      <c r="L159" s="17"/>
+    </row>
+    <row r="160" spans="2:12">
+      <c r="C160" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="D160" s="16"/>
+      <c r="E160" s="16"/>
+      <c r="F160" s="16"/>
+      <c r="G160" s="16"/>
+      <c r="H160" s="16"/>
+      <c r="I160" s="16"/>
+      <c r="J160" s="16"/>
+      <c r="K160" s="16"/>
+      <c r="L160" s="17"/>
+    </row>
+    <row r="161" spans="3:12">
+      <c r="C161" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="D161" s="16"/>
+      <c r="E161" s="16"/>
+      <c r="F161" s="16"/>
+      <c r="G161" s="16"/>
+      <c r="H161" s="16"/>
+      <c r="I161" s="16"/>
+      <c r="J161" s="16"/>
+      <c r="K161" s="16"/>
+      <c r="L161" s="17"/>
+    </row>
+    <row r="162" spans="3:12">
+      <c r="C162" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="D162" s="16"/>
+      <c r="E162" s="16"/>
+      <c r="F162" s="16"/>
+      <c r="G162" s="16"/>
+      <c r="H162" s="16"/>
+      <c r="I162" s="16"/>
+      <c r="J162" s="16"/>
+      <c r="K162" s="16"/>
+      <c r="L162" s="17"/>
+    </row>
+    <row r="163" spans="3:12">
+      <c r="C163" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="D163" s="16"/>
+      <c r="E163" s="16"/>
+      <c r="F163" s="16"/>
+      <c r="G163" s="16"/>
+      <c r="H163" s="16"/>
+      <c r="I163" s="16"/>
+      <c r="J163" s="16"/>
+      <c r="K163" s="16"/>
+      <c r="L163" s="17"/>
+    </row>
+    <row r="164" spans="3:12">
+      <c r="C164" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="D164" s="16"/>
+      <c r="E164" s="16"/>
+      <c r="F164" s="16"/>
+      <c r="G164" s="16"/>
+      <c r="H164" s="16"/>
+      <c r="I164" s="16"/>
+      <c r="J164" s="16"/>
+      <c r="K164" s="16"/>
+      <c r="L164" s="17"/>
+    </row>
+    <row r="165" spans="3:12">
+      <c r="C165" s="15"/>
+      <c r="D165" s="16"/>
+      <c r="E165" s="16"/>
+      <c r="F165" s="16"/>
+      <c r="G165" s="16"/>
+      <c r="H165" s="16"/>
+      <c r="I165" s="16"/>
+      <c r="J165" s="16"/>
+      <c r="K165" s="16"/>
+      <c r="L165" s="17"/>
+    </row>
+    <row r="166" spans="3:12">
+      <c r="C166" s="18" t="s">
+        <v>555</v>
+      </c>
+      <c r="D166" s="19"/>
+      <c r="E166" s="19"/>
+      <c r="F166" s="19"/>
+      <c r="G166" s="19"/>
+      <c r="H166" s="19"/>
+      <c r="I166" s="19"/>
+      <c r="J166" s="19"/>
+      <c r="K166" s="19"/>
+      <c r="L166" s="20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L208"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A26" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
@@ -3355,464 +5299,738 @@
   <sheetData>
     <row r="2" spans="2:2" ht="19">
       <c r="B2" s="4" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" s="2" t="s">
-        <v>356</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="19">
+      <c r="B3" s="4"/>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="2" t="s">
-        <v>352</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="2" t="s">
-        <v>353</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" ht="19">
-      <c r="B9" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" ht="19">
-      <c r="B10" s="4"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="2" t="s">
-        <v>103</v>
+      <c r="B11" s="5" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="2" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="2" t="s">
-        <v>47</v>
+      <c r="B14" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="2" t="s">
-        <v>48</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="5" t="s">
-        <v>2</v>
+      <c r="B18" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="2" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="5" t="s">
-        <v>49</v>
+      <c r="B21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="2" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" ht="20">
+      <c r="B31" s="3"/>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="2" t="s">
-        <v>11</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="2" t="s">
-        <v>12</v>
+      <c r="B35" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="B36" s="1"/>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" ht="20">
-      <c r="B38" s="3"/>
+      <c r="B37" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="B43" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" ht="19">
+      <c r="B44" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" ht="19">
+      <c r="B45" s="4"/>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="2" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="5" t="s">
-        <v>20</v>
+      <c r="B49" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" ht="19">
-      <c r="B51" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" ht="19">
-      <c r="B52" s="4"/>
+      <c r="B50" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="2" t="s">
-        <v>37</v>
+      <c r="B53" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="5" t="s">
-        <v>38</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="2" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="2" t="s">
-        <v>25</v>
+      <c r="B60" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="2" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="2" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2">
-      <c r="B72" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2">
-      <c r="B74" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2">
-      <c r="B80" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2">
-      <c r="B82" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="90" spans="2:2">
-      <c r="B90" s="2" t="s">
+    <row r="83" spans="2:2">
+      <c r="B83" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="92" spans="2:2">
-      <c r="B92" s="2" t="s">
+    <row r="85" spans="2:2">
+      <c r="B85" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="94" spans="2:2">
-      <c r="B94" s="2" t="s">
+    <row r="87" spans="2:2">
+      <c r="B87" s="2" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="2" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" s="2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="2" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" s="2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" s="2" t="s">
-        <v>67</v>
+        <v>333</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" s="2" t="s">
-        <v>370</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="123" spans="2:2">
-      <c r="B123" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="127" spans="2:2">
-      <c r="B127" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="132" spans="2:2">
       <c r="B132" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="138" spans="2:2">
-      <c r="B138" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="143" spans="2:2">
-      <c r="B143" s="2" t="s">
-        <v>74</v>
+        <v>398</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" s="2" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="146" spans="2:2">
-      <c r="B146" s="2" t="s">
-        <v>75</v>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" s="5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2">
+      <c r="B164" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2">
+      <c r="B165" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2">
+      <c r="B166" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2">
+      <c r="B168" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2">
+      <c r="B171" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2">
+      <c r="B173" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2">
+      <c r="B174" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="177" spans="2:12">
+      <c r="B177" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="179" spans="2:12">
+      <c r="B179" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="180" spans="2:12">
+      <c r="B180" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="182" spans="2:12">
+      <c r="B182" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="183" spans="2:12">
+      <c r="B183" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="185" spans="2:12">
+      <c r="C185" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="D185" s="13"/>
+      <c r="E185" s="13"/>
+      <c r="F185" s="13"/>
+      <c r="G185" s="13"/>
+      <c r="H185" s="13"/>
+      <c r="I185" s="13"/>
+      <c r="J185" s="13"/>
+      <c r="K185" s="13"/>
+      <c r="L185" s="14"/>
+    </row>
+    <row r="186" spans="2:12">
+      <c r="C186" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="D186" s="16"/>
+      <c r="E186" s="16"/>
+      <c r="F186" s="16"/>
+      <c r="G186" s="16"/>
+      <c r="H186" s="16"/>
+      <c r="I186" s="16"/>
+      <c r="J186" s="16"/>
+      <c r="K186" s="16"/>
+      <c r="L186" s="17"/>
+    </row>
+    <row r="187" spans="2:12">
+      <c r="C187" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D187" s="16"/>
+      <c r="E187" s="16"/>
+      <c r="F187" s="16"/>
+      <c r="G187" s="16"/>
+      <c r="H187" s="16"/>
+      <c r="I187" s="16"/>
+      <c r="J187" s="16"/>
+      <c r="K187" s="16"/>
+      <c r="L187" s="17"/>
+    </row>
+    <row r="188" spans="2:12">
+      <c r="C188" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="D188" s="16"/>
+      <c r="E188" s="16"/>
+      <c r="F188" s="16"/>
+      <c r="G188" s="16"/>
+      <c r="H188" s="16"/>
+      <c r="I188" s="16"/>
+      <c r="J188" s="16"/>
+      <c r="K188" s="16"/>
+      <c r="L188" s="17"/>
+    </row>
+    <row r="189" spans="2:12">
+      <c r="C189" s="15"/>
+      <c r="D189" s="16"/>
+      <c r="E189" s="16"/>
+      <c r="F189" s="16"/>
+      <c r="G189" s="16"/>
+      <c r="H189" s="16"/>
+      <c r="I189" s="16"/>
+      <c r="J189" s="16"/>
+      <c r="K189" s="16"/>
+      <c r="L189" s="17"/>
+    </row>
+    <row r="190" spans="2:12">
+      <c r="C190" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="D190" s="16"/>
+      <c r="E190" s="16"/>
+      <c r="F190" s="16"/>
+      <c r="G190" s="16"/>
+      <c r="H190" s="16"/>
+      <c r="I190" s="16"/>
+      <c r="J190" s="16"/>
+      <c r="K190" s="16"/>
+      <c r="L190" s="17"/>
+    </row>
+    <row r="191" spans="2:12">
+      <c r="C191" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="D191" s="16"/>
+      <c r="E191" s="16"/>
+      <c r="F191" s="16"/>
+      <c r="G191" s="16"/>
+      <c r="H191" s="16"/>
+      <c r="I191" s="16"/>
+      <c r="J191" s="16"/>
+      <c r="K191" s="16"/>
+      <c r="L191" s="17"/>
+    </row>
+    <row r="192" spans="2:12">
+      <c r="C192" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="D192" s="16"/>
+      <c r="E192" s="16"/>
+      <c r="F192" s="16"/>
+      <c r="G192" s="16"/>
+      <c r="H192" s="16"/>
+      <c r="I192" s="16"/>
+      <c r="J192" s="16"/>
+      <c r="K192" s="16"/>
+      <c r="L192" s="17"/>
+    </row>
+    <row r="193" spans="2:12">
+      <c r="C193" s="15"/>
+      <c r="D193" s="16"/>
+      <c r="E193" s="16"/>
+      <c r="F193" s="16"/>
+      <c r="G193" s="16"/>
+      <c r="H193" s="16"/>
+      <c r="I193" s="16"/>
+      <c r="J193" s="16"/>
+      <c r="K193" s="16"/>
+      <c r="L193" s="17"/>
+    </row>
+    <row r="194" spans="2:12">
+      <c r="C194" s="18"/>
+      <c r="D194" s="19"/>
+      <c r="E194" s="19"/>
+      <c r="F194" s="19"/>
+      <c r="G194" s="19"/>
+      <c r="H194" s="19"/>
+      <c r="I194" s="19"/>
+      <c r="J194" s="19"/>
+      <c r="K194" s="19"/>
+      <c r="L194" s="20"/>
+    </row>
+    <row r="196" spans="2:12">
+      <c r="C196" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="198" spans="2:12">
+      <c r="B198" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="199" spans="2:12">
+      <c r="B199" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="201" spans="2:12">
+      <c r="B201" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="202" spans="2:12">
+      <c r="B202" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="204" spans="2:12">
+      <c r="B204" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="205" spans="2:12">
+      <c r="B205" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="207" spans="2:12">
+      <c r="B207" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="208" spans="2:12">
+      <c r="B208" s="2" t="s">
+        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -3828,7 +6046,106 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:B28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:2" ht="19">
+      <c r="B3" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="5" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="5" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B20"/>
   <sheetViews>
@@ -3841,57 +6158,57 @@
   <sheetData>
     <row r="3" spans="2:2">
       <c r="B3" s="2" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="2" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="2" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="2" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="2" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="2" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="2" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="2" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -3906,13 +6223,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B71"/>
+  <dimension ref="B2:C83"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD29"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
@@ -3921,187 +6236,227 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>363</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="2" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="2" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="2" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="2" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="2" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="2" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="2" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="2" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="2" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="2" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="2" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="2" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="2" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="2" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="2" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="2" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="2" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="2" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" s="5" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" s="2" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="5" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="5" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="2" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="2" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="2" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
       <c r="B65" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
       <c r="B66" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3">
       <c r="B68" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3">
       <c r="B69" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
       <c r="B70" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
       <c r="B71" s="2" t="s">
-        <v>429</v>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3">
+      <c r="B74" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="B76" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3">
+      <c r="B77" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3">
+      <c r="B78" s="2" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3">
+      <c r="C80" s="2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3">
+      <c r="C82" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3">
+      <c r="C83" s="2" t="s">
+        <v>616</v>
       </c>
     </row>
   </sheetData>
@@ -4117,307 +6472,307 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D429"/>
+  <dimension ref="B3:D524"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="6" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="6" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="6" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="6" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="C24" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="C25" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="C26" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="C27" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="C28" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="C29" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="C30" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="C31" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="C32" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="C33" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="C34" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="C35" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="C36" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="C37" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="C38" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" s="6" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="2:3">
       <c r="B46" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" s="6" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="C52" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="C53" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="54" spans="2:3">
       <c r="C54" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="C55" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" spans="2:3">
       <c r="C57" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="2:3">
       <c r="C59" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="2:3">
       <c r="C60" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="2:3">
       <c r="C61" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="2:3">
       <c r="C62" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="2:3">
       <c r="C63" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="2:3">
       <c r="B65" s="6" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="2:3">
       <c r="B66" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
     </row>
     <row r="68" spans="2:3">
       <c r="C68" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row r="70" spans="2:3">
       <c r="B70" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
     </row>
     <row r="71" spans="2:3">
       <c r="B71" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
     </row>
     <row r="73" spans="2:3">
       <c r="B73" s="6" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="75" spans="2:3">
       <c r="B75" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
     </row>
     <row r="77" spans="2:3">
       <c r="C77" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
     </row>
     <row r="78" spans="2:3">
       <c r="C78" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
     </row>
     <row r="79" spans="2:3">
       <c r="C79" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
     </row>
     <row r="80" spans="2:3">
       <c r="C80" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
     </row>
     <row r="81" spans="2:3">
       <c r="C81" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
     </row>
     <row r="82" spans="2:3">
       <c r="C82" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
     </row>
     <row r="83" spans="2:3">
       <c r="C83" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
     </row>
     <row r="85" spans="2:3">
       <c r="B85" s="6" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
     </row>
     <row r="87" spans="2:3">
       <c r="B87" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
     </row>
     <row r="89" spans="2:3">
       <c r="B89" s="6" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
     </row>
     <row r="90" spans="2:3">
@@ -4425,1195 +6780,1545 @@
     </row>
     <row r="91" spans="2:3">
       <c r="B91" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
     </row>
     <row r="93" spans="2:3">
       <c r="C93" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
     </row>
     <row r="94" spans="2:3">
       <c r="C94" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
     </row>
     <row r="95" spans="2:3">
       <c r="C95" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
     </row>
     <row r="96" spans="2:3">
       <c r="C96" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
     </row>
     <row r="97" spans="2:3">
       <c r="C97" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
     </row>
     <row r="99" spans="2:3">
       <c r="B99" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
     </row>
     <row r="101" spans="2:3">
       <c r="B101" s="6" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
     </row>
     <row r="103" spans="2:3">
       <c r="C103" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
     </row>
     <row r="104" spans="2:3">
       <c r="C104" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
     </row>
     <row r="105" spans="2:3">
       <c r="C105" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
     </row>
     <row r="106" spans="2:3">
       <c r="C106" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
     </row>
     <row r="107" spans="2:3">
       <c r="C107" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
     </row>
     <row r="108" spans="2:3">
       <c r="C108" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
     </row>
     <row r="109" spans="2:3">
       <c r="C109" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
     </row>
     <row r="111" spans="2:3">
       <c r="B111" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
     </row>
     <row r="113" spans="2:3">
       <c r="B113" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
     </row>
     <row r="115" spans="2:3">
       <c r="B115" s="6" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
     </row>
     <row r="117" spans="2:3">
       <c r="B117" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
     </row>
     <row r="119" spans="2:3">
       <c r="C119" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
     </row>
     <row r="120" spans="2:3">
       <c r="C120" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="121" spans="2:3">
       <c r="C121" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
     </row>
     <row r="122" spans="2:3">
       <c r="C122" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
     </row>
     <row r="123" spans="2:3">
       <c r="C123" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="124" spans="2:3">
       <c r="C124" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
     </row>
     <row r="125" spans="2:3">
       <c r="C125" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
     </row>
     <row r="126" spans="2:3">
       <c r="C126" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
     </row>
     <row r="127" spans="2:3">
       <c r="C127" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
     </row>
     <row r="128" spans="2:3">
       <c r="C128" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
     </row>
     <row r="129" spans="2:3">
       <c r="C129" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
     </row>
     <row r="130" spans="2:3">
       <c r="C130" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
     </row>
     <row r="131" spans="2:3">
       <c r="C131" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
     </row>
     <row r="132" spans="2:3">
       <c r="C132" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
     </row>
     <row r="133" spans="2:3">
       <c r="C133" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
     </row>
     <row r="134" spans="2:3">
       <c r="C134" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
     </row>
     <row r="135" spans="2:3">
       <c r="C135" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
     </row>
     <row r="138" spans="2:3">
       <c r="B138" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
     </row>
     <row r="140" spans="2:3">
       <c r="B140" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
     </row>
     <row r="141" spans="2:3">
       <c r="B141" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
     </row>
     <row r="142" spans="2:3">
       <c r="B142" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
     </row>
     <row r="143" spans="2:3">
       <c r="B143" s="6" t="s">
-        <v>360</v>
+        <v>324</v>
       </c>
     </row>
     <row r="145" spans="2:3">
       <c r="B145" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
     </row>
     <row r="146" spans="2:3">
       <c r="B146" s="6" t="s">
-        <v>359</v>
+        <v>323</v>
       </c>
     </row>
     <row r="148" spans="2:3">
       <c r="B148" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
     </row>
     <row r="150" spans="2:3">
       <c r="C150" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
     <row r="151" spans="2:3">
       <c r="C151" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
     </row>
     <row r="152" spans="2:3">
       <c r="C152" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
     </row>
     <row r="153" spans="2:3">
       <c r="C153" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
     </row>
     <row r="154" spans="2:3">
       <c r="C154" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
     </row>
     <row r="155" spans="2:3">
       <c r="C155" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
     </row>
     <row r="156" spans="2:3">
       <c r="C156" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
     </row>
     <row r="157" spans="2:3">
       <c r="C157" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
     </row>
     <row r="158" spans="2:3">
       <c r="C158" s="7" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
     </row>
     <row r="160" spans="2:3">
       <c r="B160" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="162" spans="2:3">
       <c r="B162" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
     </row>
     <row r="164" spans="2:3">
       <c r="B164" s="6" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
     </row>
     <row r="166" spans="2:3">
       <c r="B166" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
     </row>
     <row r="168" spans="2:3">
       <c r="C168" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
     </row>
     <row r="169" spans="2:3">
       <c r="C169" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
     </row>
     <row r="170" spans="2:3">
       <c r="C170" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="171" spans="2:3">
       <c r="C171" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="172" spans="2:3">
       <c r="C172" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="173" spans="2:3">
       <c r="C173" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
     </row>
     <row r="174" spans="2:3">
       <c r="C174" s="7" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
     </row>
     <row r="177" spans="2:2">
       <c r="B177" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="178" spans="2:2">
       <c r="B178" s="6" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
     </row>
     <row r="179" spans="2:2">
       <c r="B179" s="6" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="181" spans="2:2">
       <c r="B181" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
     </row>
     <row r="198" spans="2:2">
       <c r="B198" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
     </row>
     <row r="200" spans="2:2">
       <c r="B200" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="202" spans="2:2">
       <c r="B202" s="6" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
     </row>
     <row r="204" spans="2:2">
       <c r="B204" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
     </row>
     <row r="205" spans="2:2">
       <c r="B205" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
     </row>
     <row r="207" spans="2:2">
       <c r="B207" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
     </row>
     <row r="209" spans="2:4">
       <c r="C209" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
     </row>
     <row r="211" spans="2:4">
       <c r="C211" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
     </row>
     <row r="212" spans="2:4">
       <c r="C212" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
     </row>
     <row r="213" spans="2:4">
       <c r="D213" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
     </row>
     <row r="214" spans="2:4">
       <c r="C214" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
     </row>
     <row r="216" spans="2:4">
       <c r="C216" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
     </row>
     <row r="218" spans="2:4">
       <c r="C218" s="8" t="s">
-        <v>276</v>
+        <v>427</v>
       </c>
     </row>
     <row r="220" spans="2:4">
       <c r="C220" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
     </row>
     <row r="222" spans="2:4">
       <c r="B222" t="s">
-        <v>368</v>
+        <v>428</v>
       </c>
     </row>
     <row r="223" spans="2:4">
       <c r="B223" t="s">
-        <v>367</v>
+        <v>331</v>
       </c>
     </row>
     <row r="224" spans="2:4">
       <c r="B224" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
     </row>
     <row r="226" spans="2:2">
       <c r="B226" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
     </row>
     <row r="229" spans="2:2">
       <c r="B229" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
     </row>
     <row r="231" spans="2:2">
       <c r="B231" s="6" t="s">
-        <v>280</v>
+        <v>429</v>
       </c>
     </row>
     <row r="233" spans="2:2">
       <c r="B233" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
     </row>
     <row r="234" spans="2:2">
       <c r="B234" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
     </row>
     <row r="236" spans="2:2">
       <c r="B236" s="6" t="s">
-        <v>282</v>
+        <v>430</v>
       </c>
     </row>
     <row r="238" spans="2:2">
       <c r="B238" s="9" t="s">
-        <v>371</v>
+        <v>334</v>
       </c>
     </row>
     <row r="239" spans="2:2">
       <c r="B239" s="6" t="s">
-        <v>372</v>
+        <v>335</v>
       </c>
     </row>
     <row r="241" spans="2:3">
-      <c r="B241" s="10" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="243" spans="2:3">
-      <c r="B243" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="245" spans="2:3">
-      <c r="B245" s="6" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="247" spans="2:3">
-      <c r="B247" t="s">
-        <v>286</v>
+      <c r="B241" s="21" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3">
+      <c r="B242" s="22" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="244" spans="2:3">
+      <c r="B244" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3">
+      <c r="B246" s="6" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="248" spans="2:3">
       <c r="B248" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
     </row>
     <row r="249" spans="2:3">
-      <c r="C249" t="s">
-        <v>287</v>
+      <c r="B249" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="250" spans="2:3">
       <c r="C250" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
     </row>
     <row r="251" spans="2:3">
       <c r="C251" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
     </row>
     <row r="252" spans="2:3">
       <c r="C252" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
     </row>
     <row r="253" spans="2:3">
       <c r="C253" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="255" spans="2:3">
-      <c r="B255" s="6" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="257" spans="2:3">
-      <c r="B257" t="s">
-        <v>293</v>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="254" spans="2:3">
+      <c r="C254" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="256" spans="2:3">
+      <c r="B256" s="6" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="258" spans="2:3">
-      <c r="C258" t="s">
-        <v>294</v>
+      <c r="B258" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="259" spans="2:3">
       <c r="C259" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
     </row>
     <row r="260" spans="2:3">
       <c r="C260" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
     </row>
     <row r="261" spans="2:3">
       <c r="C261" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
     </row>
     <row r="262" spans="2:3">
       <c r="C262" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="264" spans="2:3">
-      <c r="B264" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="266" spans="2:3">
-      <c r="B266" t="s">
-        <v>300</v>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3">
+      <c r="C263" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="265" spans="2:3">
+      <c r="B265" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="267" spans="2:3">
-      <c r="B267" s="6" t="s">
-        <v>301</v>
+      <c r="B267" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="268" spans="2:3">
+      <c r="B268" s="9" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="269" spans="2:3">
-      <c r="B269" t="s">
-        <v>302</v>
+      <c r="B269" s="9" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="270" spans="2:3">
       <c r="B270" s="6" t="s">
-        <v>374</v>
+        <v>459</v>
       </c>
     </row>
     <row r="272" spans="2:3">
       <c r="B272" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="273" spans="3:3">
-      <c r="C273" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="274" spans="3:3">
-      <c r="C274" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="275" spans="3:3">
-      <c r="C275" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="277" spans="3:3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="273" spans="2:3">
+      <c r="B273" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="275" spans="2:3">
+      <c r="B275" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="276" spans="2:3">
+      <c r="C276" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="277" spans="2:3">
       <c r="C277" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="278" spans="3:3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="278" spans="2:3">
       <c r="C278" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="279" spans="3:3">
-      <c r="C279" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="281" spans="3:3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="2:3">
+      <c r="C280" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="2:3">
       <c r="C281" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="283" spans="3:3">
-      <c r="C283" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="284" spans="3:3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="2:3">
+      <c r="C282" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="284" spans="2:3">
       <c r="C284" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="285" spans="3:3">
-      <c r="C285" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="286" spans="3:3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="286" spans="2:3">
       <c r="C286" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="287" spans="3:3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="287" spans="2:3">
       <c r="C287" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="288" spans="3:3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="288" spans="2:3">
       <c r="C288" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
     </row>
     <row r="289" spans="3:3">
       <c r="C289" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
     </row>
     <row r="290" spans="3:3">
       <c r="C290" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
     </row>
     <row r="291" spans="3:3">
       <c r="C291" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
     </row>
     <row r="292" spans="3:3">
       <c r="C292" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
     </row>
     <row r="293" spans="3:3">
       <c r="C293" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
     </row>
     <row r="294" spans="3:3">
       <c r="C294" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
     </row>
     <row r="295" spans="3:3">
       <c r="C295" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
     </row>
     <row r="296" spans="3:3">
       <c r="C296" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
     </row>
     <row r="297" spans="3:3">
       <c r="C297" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
     </row>
     <row r="298" spans="3:3">
       <c r="C298" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
     </row>
     <row r="299" spans="3:3">
       <c r="C299" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
     </row>
     <row r="300" spans="3:3">
       <c r="C300" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
     </row>
     <row r="301" spans="3:3">
       <c r="C301" t="s">
-        <v>329</v>
+        <v>299</v>
       </c>
     </row>
     <row r="302" spans="3:3">
       <c r="C302" t="s">
-        <v>330</v>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="303" spans="3:3">
+      <c r="C303" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="304" spans="3:3">
       <c r="C304" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
     </row>
     <row r="305" spans="2:3">
       <c r="C305" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="306" spans="2:3">
-      <c r="C306" t="s">
-        <v>333</v>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="307" spans="2:3">
+      <c r="C307" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="308" spans="2:3">
       <c r="C308" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="310" spans="2:3">
-      <c r="C310" t="s">
-        <v>375</v>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="309" spans="2:3">
+      <c r="C309" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="311" spans="2:3">
       <c r="C311" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="312" spans="2:3">
-      <c r="C312" t="s">
-        <v>336</v>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="313" spans="2:3">
+      <c r="C313" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="314" spans="2:3">
+      <c r="C314" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="315" spans="2:3">
-      <c r="B315" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="317" spans="2:3">
-      <c r="B317" t="s">
-        <v>337</v>
+      <c r="C315" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="318" spans="2:3">
-      <c r="B318" s="6" t="s">
-        <v>338</v>
+      <c r="B318" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="320" spans="2:3">
-      <c r="B320" s="6" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="322" spans="2:3">
-      <c r="B322" t="s">
-        <v>343</v>
+      <c r="B320" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="321" spans="2:3">
+      <c r="B321" s="6" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="323" spans="2:3">
-      <c r="B323" t="s">
-        <v>237</v>
-      </c>
-      <c r="C323" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="324" spans="2:3">
-      <c r="C324" s="7" t="s">
-        <v>341</v>
+      <c r="B323" s="6" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="325" spans="2:3">
-      <c r="C325" t="s">
-        <v>342</v>
+      <c r="B325" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="326" spans="2:3">
+      <c r="B326" t="s">
+        <v>215</v>
+      </c>
+      <c r="C326" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="327" spans="2:3">
-      <c r="B327" t="s">
-        <v>344</v>
+      <c r="C327" s="7" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="328" spans="2:3">
       <c r="C328" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="329" spans="2:3">
-      <c r="C329" t="s">
-        <v>346</v>
+        <v>313</v>
       </c>
     </row>
     <row r="330" spans="2:3">
-      <c r="C330" t="s">
-        <v>347</v>
+      <c r="B330" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="331" spans="2:3">
+      <c r="C331" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="332" spans="2:3">
-      <c r="B332" t="s">
-        <v>349</v>
+      <c r="C332" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="333" spans="2:3">
-      <c r="B333" s="6" t="s">
-        <v>348</v>
+      <c r="C333" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="335" spans="2:3">
       <c r="B335" t="s">
-        <v>351</v>
+        <v>463</v>
       </c>
     </row>
     <row r="336" spans="2:3">
-      <c r="B336" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="339" spans="2:3">
-      <c r="B339" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="341" spans="2:3">
-      <c r="B341" s="6" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="342" spans="2:3">
-      <c r="B342" s="6" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="343" spans="2:3">
-      <c r="B343" s="6" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="345" spans="2:3">
-      <c r="B345" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="346" spans="2:3">
-      <c r="B346" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="347" spans="2:3">
+      <c r="B336" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="338" spans="2:2">
+      <c r="B338" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="339" spans="2:2">
+      <c r="B339" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="342" spans="2:2">
+      <c r="B342" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="343" spans="2:2">
+      <c r="B343" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="344" spans="2:2">
+      <c r="B344" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="345" spans="2:2">
+      <c r="B345" s="6" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="347" spans="2:2">
       <c r="B347" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="349" spans="2:3">
-      <c r="C349" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="350" spans="2:3">
-      <c r="C350" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="352" spans="2:3">
-      <c r="C352" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="353" spans="2:4">
-      <c r="C353" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="354" spans="2:4">
-      <c r="D354" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="355" spans="2:4">
-      <c r="C355" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="357" spans="2:4">
-      <c r="C357" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="359" spans="2:4">
-      <c r="C359" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="361" spans="2:4">
-      <c r="C361" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="363" spans="2:4">
-      <c r="C363" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="364" spans="2:4">
-      <c r="C364" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="366" spans="2:4">
-      <c r="B366" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="369" spans="2:3">
-      <c r="B369" t="s">
-        <v>393</v>
+        <v>559</v>
+      </c>
+    </row>
+    <row r="348" spans="2:2">
+      <c r="B348" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="349" spans="2:2">
+      <c r="B349" s="7" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="350" spans="2:2">
+      <c r="B350" s="7" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="351" spans="2:2">
+      <c r="B351" s="7" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="353" spans="2:3">
+      <c r="B353" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="354" spans="2:3">
+      <c r="B354" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="355" spans="2:3">
+      <c r="B355" s="7" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="357" spans="2:3">
+      <c r="B357" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="358" spans="2:3">
+      <c r="C358" s="23" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="359" spans="2:3">
+      <c r="C359" s="23" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="361" spans="2:3">
+      <c r="B361" s="7" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="364" spans="2:3">
+      <c r="B364" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="365" spans="2:3">
+      <c r="B365" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="366" spans="2:3">
+      <c r="C366" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="367" spans="2:3">
+      <c r="C367" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="368" spans="2:3">
+      <c r="C368" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="370" spans="2:3">
       <c r="B370" t="s">
-        <v>394</v>
+        <v>561</v>
       </c>
     </row>
     <row r="371" spans="2:3">
-      <c r="C371" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="372" spans="2:3">
-      <c r="C372" t="s">
-        <v>391</v>
+      <c r="B371" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="373" spans="2:3">
-      <c r="C373" t="s">
-        <v>392</v>
+      <c r="B373" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="374" spans="2:3">
+      <c r="B374" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="375" spans="2:3">
-      <c r="B375" t="s">
-        <v>389</v>
+      <c r="C375" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="376" spans="2:3">
+      <c r="C376" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="377" spans="2:3">
-      <c r="B377" t="s">
-        <v>395</v>
+      <c r="C377" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="378" spans="2:3">
+      <c r="C378" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="379" spans="2:3">
       <c r="C379" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="380" spans="2:3">
-      <c r="C380" t="s">
-        <v>397</v>
+        <v>348</v>
       </c>
     </row>
     <row r="381" spans="2:3">
       <c r="C381" t="s">
-        <v>398</v>
+        <v>535</v>
       </c>
     </row>
     <row r="382" spans="2:3">
       <c r="C382" t="s">
-        <v>399</v>
+        <v>536</v>
+      </c>
+    </row>
+    <row r="383" spans="2:3">
+      <c r="C383" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="384" spans="2:3">
       <c r="C384" t="s">
-        <v>400</v>
+        <v>538</v>
       </c>
     </row>
     <row r="385" spans="3:3">
       <c r="C385" t="s">
-        <v>401</v>
+        <v>539</v>
       </c>
     </row>
     <row r="386" spans="3:3">
       <c r="C386" t="s">
-        <v>402</v>
+        <v>540</v>
       </c>
     </row>
     <row r="387" spans="3:3">
       <c r="C387" t="s">
-        <v>403</v>
+        <v>541</v>
       </c>
     </row>
     <row r="388" spans="3:3">
       <c r="C388" t="s">
-        <v>404</v>
+        <v>542</v>
       </c>
     </row>
     <row r="389" spans="3:3">
       <c r="C389" t="s">
-        <v>405</v>
+        <v>541</v>
       </c>
     </row>
     <row r="390" spans="3:3">
       <c r="C390" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="391" spans="3:3">
-      <c r="C391" t="s">
-        <v>407</v>
+        <v>570</v>
       </c>
     </row>
     <row r="392" spans="3:3">
       <c r="C392" t="s">
-        <v>406</v>
+        <v>571</v>
       </c>
     </row>
     <row r="393" spans="3:3">
       <c r="C393" t="s">
-        <v>408</v>
+        <v>572</v>
       </c>
     </row>
     <row r="394" spans="3:3">
       <c r="C394" t="s">
-        <v>409</v>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="395" spans="3:3">
+      <c r="C395" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="396" spans="3:3">
       <c r="C396" t="s">
-        <v>410</v>
+        <v>574</v>
       </c>
     </row>
     <row r="397" spans="3:3">
       <c r="C397" t="s">
-        <v>411</v>
+        <v>575</v>
       </c>
     </row>
     <row r="398" spans="3:3">
       <c r="C398" t="s">
-        <v>400</v>
+        <v>534</v>
       </c>
     </row>
     <row r="399" spans="3:3">
       <c r="C399" t="s">
-        <v>401</v>
+        <v>347</v>
       </c>
     </row>
     <row r="400" spans="3:3">
       <c r="C400" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="401" spans="3:3">
-      <c r="C401" t="s">
-        <v>403</v>
+        <v>348</v>
       </c>
     </row>
     <row r="402" spans="3:3">
       <c r="C402" t="s">
-        <v>404</v>
+        <v>535</v>
       </c>
     </row>
     <row r="403" spans="3:3">
       <c r="C403" t="s">
-        <v>405</v>
+        <v>536</v>
       </c>
     </row>
     <row r="404" spans="3:3">
       <c r="C404" t="s">
-        <v>406</v>
+        <v>537</v>
       </c>
     </row>
     <row r="405" spans="3:3">
       <c r="C405" t="s">
-        <v>407</v>
+        <v>538</v>
       </c>
     </row>
     <row r="406" spans="3:3">
       <c r="C406" t="s">
-        <v>406</v>
+        <v>539</v>
       </c>
     </row>
     <row r="407" spans="3:3">
       <c r="C407" t="s">
-        <v>408</v>
+        <v>540</v>
       </c>
     </row>
     <row r="408" spans="3:3">
       <c r="C408" t="s">
-        <v>409</v>
+        <v>541</v>
+      </c>
+    </row>
+    <row r="409" spans="3:3">
+      <c r="C409" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="410" spans="3:3">
       <c r="C410" t="s">
-        <v>412</v>
+        <v>541</v>
       </c>
     </row>
     <row r="411" spans="3:3">
-      <c r="C411" t="s">
-        <v>413</v>
+      <c r="C411" s="7" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="412" spans="3:3">
       <c r="C412" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="413" spans="3:3">
-      <c r="C413" t="s">
-        <v>415</v>
+        <v>349</v>
       </c>
     </row>
     <row r="414" spans="3:3">
       <c r="C414" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="415" spans="3:3">
-      <c r="C415" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="416" spans="3:3">
-      <c r="C416" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="417" spans="3:3">
-      <c r="C417" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="418" spans="3:3">
-      <c r="C418" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="419" spans="3:3">
-      <c r="C419" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="421" spans="3:3">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="417" spans="2:3">
+      <c r="B417" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="419" spans="2:3">
+      <c r="B419" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="421" spans="2:3">
       <c r="C421" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="422" spans="3:3">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="422" spans="2:3">
       <c r="C422" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="423" spans="3:3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="423" spans="2:3">
       <c r="C423" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="424" spans="3:3">
-      <c r="C424" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="425" spans="3:3">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="425" spans="2:3">
       <c r="C425" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="426" spans="3:3">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="426" spans="2:3">
       <c r="C426" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="427" spans="3:3">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="427" spans="2:3">
       <c r="C427" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="429" spans="3:3">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="428" spans="2:3">
+      <c r="C428" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="429" spans="2:3">
       <c r="C429" t="s">
-        <v>428</v>
+        <v>537</v>
+      </c>
+    </row>
+    <row r="430" spans="2:3">
+      <c r="C430" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="431" spans="2:3">
+      <c r="C431" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="432" spans="2:3">
+      <c r="C432" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="433" spans="2:3">
+      <c r="C433" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="434" spans="2:3">
+      <c r="C434" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="435" spans="2:3">
+      <c r="C435" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="436" spans="2:3">
+      <c r="C436" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="437" spans="2:3">
+      <c r="C437" s="7" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="438" spans="2:3">
+      <c r="C438" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="440" spans="2:3">
+      <c r="C440" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="443" spans="2:3">
+      <c r="B443" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="445" spans="2:3">
+      <c r="C445" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="446" spans="2:3">
+      <c r="C446" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="447" spans="2:3">
+      <c r="C447" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="449" spans="2:3">
+      <c r="C449" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="450" spans="2:3">
+      <c r="C450" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="451" spans="2:3">
+      <c r="C451" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="452" spans="2:3">
+      <c r="C452" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="453" spans="2:3">
+      <c r="C453" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="454" spans="2:3">
+      <c r="C454" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="455" spans="2:3">
+      <c r="C455" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="456" spans="2:3">
+      <c r="C456" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="457" spans="2:3">
+      <c r="C457" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="458" spans="2:3">
+      <c r="C458" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="459" spans="2:3">
+      <c r="C459" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="461" spans="2:3">
+      <c r="C461" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="464" spans="2:3">
+      <c r="B464" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="466" spans="2:3">
+      <c r="C466" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="467" spans="2:3">
+      <c r="C467" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="468" spans="2:3">
+      <c r="C468" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="470" spans="2:3">
+      <c r="B470" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="472" spans="2:3">
+      <c r="B472" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="473" spans="2:3">
+      <c r="B473" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="474" spans="2:3">
+      <c r="B474" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="475" spans="2:3">
+      <c r="C475" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="476" spans="2:3">
+      <c r="C476" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="478" spans="2:3">
+      <c r="B478" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="480" spans="2:3">
+      <c r="C480" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="481" spans="2:3">
+      <c r="C481" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="482" spans="2:3">
+      <c r="C482" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="484" spans="2:3">
+      <c r="C484" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="485" spans="2:3">
+      <c r="C485" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="486" spans="2:3">
+      <c r="C486" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="488" spans="2:3">
+      <c r="B488" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="490" spans="2:3">
+      <c r="C490" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="491" spans="2:3">
+      <c r="C491" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="492" spans="2:3">
+      <c r="C492" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="493" spans="2:3">
+      <c r="C493" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="497" spans="2:3">
+      <c r="B497" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="499" spans="2:3">
+      <c r="B499" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="500" spans="2:3">
+      <c r="B500" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="501" spans="2:3">
+      <c r="B501" s="6" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="503" spans="2:3">
+      <c r="C503" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="504" spans="2:3">
+      <c r="C504" s="7" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="506" spans="2:3">
+      <c r="B506" s="6" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="508" spans="2:3">
+      <c r="C508" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="509" spans="2:3">
+      <c r="C509" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="511" spans="2:3">
+      <c r="B511" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="513" spans="2:2">
+      <c r="B513" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="514" spans="2:2">
+      <c r="B514" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="515" spans="2:2">
+      <c r="B515" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="517" spans="2:2">
+      <c r="B517" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="519" spans="2:2">
+      <c r="B519" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="520" spans="2:2">
+      <c r="B520" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="521" spans="2:2">
+      <c r="B521" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="522" spans="2:2">
+      <c r="B522" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="523" spans="2:2">
+      <c r="B523" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="524" spans="2:2">
+      <c r="B524" t="s">
+        <v>636</v>
       </c>
     </row>
   </sheetData>
@@ -5629,13 +8334,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C71"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
@@ -5644,317 +8347,57 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>361</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="2" t="s">
-        <v>362</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="2" t="s">
-        <v>363</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="2" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="2" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="2" t="s">
-        <v>365</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="2" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="2" t="s">
-        <v>366</v>
+        <v>330</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="2" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="2" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="5" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="5" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="B36" s="5" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="B38" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="C39" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3">
-      <c r="C40" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3">
-      <c r="C41" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3">
-      <c r="C42" s="11" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3">
-      <c r="B45" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3">
-      <c r="B47" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3">
-      <c r="B48" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3">
-      <c r="B50" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3">
-      <c r="B51" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3">
-      <c r="B53" s="2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3">
-      <c r="B54" s="5" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3">
-      <c r="B56" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3">
-      <c r="C57" s="12" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3">
-      <c r="C58" s="12" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3">
-      <c r="C59" s="12" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3">
-      <c r="C60" s="12" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3">
-      <c r="B64" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3">
-      <c r="B66" s="5" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3">
-      <c r="C68" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3">
-      <c r="C69" s="2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3">
-      <c r="C70" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3">
-      <c r="C71" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B39"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="10.83203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="2:2">
@@ -5962,49 +8405,169 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="2" t="s">
-        <v>95</v>
+    <row r="22" spans="2:2">
+      <c r="B22" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="2" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="2" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="2" t="s">
-        <v>86</v>
+        <v>362</v>
       </c>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="2" t="s">
-        <v>93</v>
+      <c r="B31" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" s="5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="C39" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="C40" s="10" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="C41" s="10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="C42" s="10" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="C57" s="11" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="C58" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="C59" s="11" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="C60" s="11" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66" s="5" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="C68" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3">
+      <c r="C69" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="C70" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="C71" s="2" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Docker/Docker_Setup.xlsx
+++ b/Document/Docker/Docker_Setup.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="300" windowWidth="25520" windowHeight="17560" tabRatio="646" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15540" tabRatio="646" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="emin镜像说明" sheetId="5" r:id="rId1"/>
@@ -47,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    [docker repo]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">    name=Docker Repository</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3101,6 +3097,10 @@
   </si>
   <si>
     <t xml:space="preserve">         密码不填(因为以上并未设置postgres的密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    [dockerrepo]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4356,7 +4356,7 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -4364,327 +4364,327 @@
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="46" spans="2:3">
       <c r="B46" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="C48" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="C52" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="B55" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="57" spans="2:3">
       <c r="B57" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="59" spans="2:3">
       <c r="B59" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="61" spans="2:3">
       <c r="B61" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="62" spans="2:3">
       <c r="B62" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="64" spans="2:3">
       <c r="B64" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="97" spans="2:9">
       <c r="B97" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="99" spans="2:9">
       <c r="B99" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="100" spans="2:9">
       <c r="B100" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="102" spans="2:9">
       <c r="B102" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="103" spans="2:9">
       <c r="B103" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="105" spans="2:9">
       <c r="B105" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="106" spans="2:9">
       <c r="C106" s="12" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D106" s="13"/>
       <c r="E106" s="13"/>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="107" spans="2:9">
       <c r="C107" s="15" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D107" s="16"/>
       <c r="E107" s="16"/>
@@ -4706,7 +4706,7 @@
     </row>
     <row r="108" spans="2:9">
       <c r="C108" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D108" s="16"/>
       <c r="E108" s="16"/>
@@ -4726,17 +4726,17 @@
     </row>
     <row r="112" spans="2:9">
       <c r="B112" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="114" spans="2:12">
       <c r="B114" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="116" spans="2:12">
       <c r="C116" s="12" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D116" s="13"/>
       <c r="E116" s="13"/>
@@ -4747,7 +4747,7 @@
     </row>
     <row r="117" spans="2:12">
       <c r="C117" s="15" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D117" s="16"/>
       <c r="E117" s="16"/>
@@ -4776,7 +4776,7 @@
     </row>
     <row r="120" spans="2:12">
       <c r="B120" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C120" s="16"/>
       <c r="D120" s="16"/>
@@ -4788,22 +4788,22 @@
     </row>
     <row r="122" spans="2:12">
       <c r="B122" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="124" spans="2:12">
       <c r="B124" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="125" spans="2:12">
       <c r="B125" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="127" spans="2:12">
       <c r="C127" s="12" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D127" s="13"/>
       <c r="E127" s="13"/>
@@ -4817,7 +4817,7 @@
     </row>
     <row r="128" spans="2:12">
       <c r="C128" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D128" s="16"/>
       <c r="E128" s="16"/>
@@ -4831,7 +4831,7 @@
     </row>
     <row r="129" spans="3:12">
       <c r="C129" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D129" s="16"/>
       <c r="E129" s="16"/>
@@ -4857,7 +4857,7 @@
     </row>
     <row r="131" spans="3:12">
       <c r="C131" s="15" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D131" s="16"/>
       <c r="E131" s="16"/>
@@ -4871,7 +4871,7 @@
     </row>
     <row r="132" spans="3:12">
       <c r="C132" s="15" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D132" s="16"/>
       <c r="E132" s="16"/>
@@ -4885,7 +4885,7 @@
     </row>
     <row r="133" spans="3:12">
       <c r="C133" s="15" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D133" s="16"/>
       <c r="E133" s="16"/>
@@ -4899,7 +4899,7 @@
     </row>
     <row r="134" spans="3:12">
       <c r="C134" s="15" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D134" s="16"/>
       <c r="E134" s="16"/>
@@ -4913,7 +4913,7 @@
     </row>
     <row r="135" spans="3:12">
       <c r="C135" s="15" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D135" s="16"/>
       <c r="E135" s="16"/>
@@ -4927,7 +4927,7 @@
     </row>
     <row r="136" spans="3:12">
       <c r="C136" s="15" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D136" s="16"/>
       <c r="E136" s="16"/>
@@ -4941,7 +4941,7 @@
     </row>
     <row r="137" spans="3:12">
       <c r="C137" s="15" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D137" s="16"/>
       <c r="E137" s="16"/>
@@ -4955,7 +4955,7 @@
     </row>
     <row r="138" spans="3:12">
       <c r="C138" s="15" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D138" s="16"/>
       <c r="E138" s="16"/>
@@ -4969,7 +4969,7 @@
     </row>
     <row r="139" spans="3:12">
       <c r="C139" s="15" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D139" s="16"/>
       <c r="E139" s="16"/>
@@ -4983,7 +4983,7 @@
     </row>
     <row r="140" spans="3:12">
       <c r="C140" s="15" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D140" s="16"/>
       <c r="E140" s="16"/>
@@ -4997,7 +4997,7 @@
     </row>
     <row r="141" spans="3:12">
       <c r="C141" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D141" s="16"/>
       <c r="E141" s="16"/>
@@ -5023,7 +5023,7 @@
     </row>
     <row r="143" spans="3:12">
       <c r="C143" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D143" s="19"/>
       <c r="E143" s="19"/>
@@ -5037,22 +5037,22 @@
     </row>
     <row r="146" spans="2:12">
       <c r="B146" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="148" spans="2:12">
       <c r="B148" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="149" spans="2:12">
       <c r="B149" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="151" spans="2:12">
       <c r="C151" s="12" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D151" s="13"/>
       <c r="E151" s="13"/>
@@ -5066,7 +5066,7 @@
     </row>
     <row r="152" spans="2:12">
       <c r="C152" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D152" s="16"/>
       <c r="E152" s="16"/>
@@ -5080,7 +5080,7 @@
     </row>
     <row r="153" spans="2:12">
       <c r="C153" s="15" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D153" s="16"/>
       <c r="E153" s="16"/>
@@ -5094,7 +5094,7 @@
     </row>
     <row r="154" spans="2:12">
       <c r="C154" s="15" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D154" s="16"/>
       <c r="E154" s="16"/>
@@ -5108,7 +5108,7 @@
     </row>
     <row r="155" spans="2:12">
       <c r="C155" s="15" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D155" s="16"/>
       <c r="E155" s="16"/>
@@ -5122,7 +5122,7 @@
     </row>
     <row r="156" spans="2:12">
       <c r="C156" s="15" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D156" s="16"/>
       <c r="E156" s="16"/>
@@ -5136,7 +5136,7 @@
     </row>
     <row r="157" spans="2:12">
       <c r="C157" s="15" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D157" s="16"/>
       <c r="E157" s="16"/>
@@ -5150,7 +5150,7 @@
     </row>
     <row r="158" spans="2:12">
       <c r="C158" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D158" s="16"/>
       <c r="E158" s="16"/>
@@ -5176,7 +5176,7 @@
     </row>
     <row r="160" spans="2:12">
       <c r="C160" s="15" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D160" s="16"/>
       <c r="E160" s="16"/>
@@ -5190,7 +5190,7 @@
     </row>
     <row r="161" spans="3:12">
       <c r="C161" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D161" s="16"/>
       <c r="E161" s="16"/>
@@ -5204,7 +5204,7 @@
     </row>
     <row r="162" spans="3:12">
       <c r="C162" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D162" s="16"/>
       <c r="E162" s="16"/>
@@ -5218,7 +5218,7 @@
     </row>
     <row r="163" spans="3:12">
       <c r="C163" s="15" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D163" s="16"/>
       <c r="E163" s="16"/>
@@ -5232,7 +5232,7 @@
     </row>
     <row r="164" spans="3:12">
       <c r="C164" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D164" s="16"/>
       <c r="E164" s="16"/>
@@ -5258,7 +5258,7 @@
     </row>
     <row r="166" spans="3:12">
       <c r="C166" s="18" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D166" s="19"/>
       <c r="E166" s="19"/>
@@ -5286,7 +5286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L208"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A26" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
@@ -5307,7 +5307,7 @@
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="2:2">
@@ -5317,17 +5317,17 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="2:2">
@@ -5337,12 +5337,12 @@
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="2:2">
@@ -5357,57 +5357,57 @@
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="2" t="s">
-        <v>5</v>
+        <v>636</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="2:2" ht="20">
@@ -5415,17 +5415,17 @@
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="2:2">
@@ -5433,37 +5433,37 @@
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="2:2" ht="19">
       <c r="B44" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="2:2" ht="19">
@@ -5471,392 +5471,392 @@
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="117" spans="2:2">
       <c r="B117" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="132" spans="2:2">
       <c r="B132" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="144" spans="2:2">
       <c r="B144" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="147" spans="2:2">
       <c r="B147" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="148" spans="2:2">
       <c r="B148" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="152" spans="2:2">
       <c r="B152" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="154" spans="2:2">
       <c r="B154" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="156" spans="2:2">
       <c r="B156" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="157" spans="2:2">
       <c r="B157" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="160" spans="2:2">
       <c r="B160" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="162" spans="2:2">
       <c r="B162" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="164" spans="2:2">
       <c r="B164" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="165" spans="2:2">
       <c r="B165" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="166" spans="2:2">
       <c r="B166" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="171" spans="2:2">
       <c r="B171" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="173" spans="2:2">
       <c r="B173" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="174" spans="2:2">
       <c r="B174" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="177" spans="2:12">
       <c r="B177" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="179" spans="2:12">
       <c r="B179" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="180" spans="2:12">
       <c r="B180" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="182" spans="2:12">
       <c r="B182" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="183" spans="2:12">
       <c r="B183" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="185" spans="2:12">
       <c r="C185" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D185" s="13"/>
       <c r="E185" s="13"/>
@@ -5870,7 +5870,7 @@
     </row>
     <row r="186" spans="2:12">
       <c r="C186" s="15" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D186" s="16"/>
       <c r="E186" s="16"/>
@@ -5884,7 +5884,7 @@
     </row>
     <row r="187" spans="2:12">
       <c r="C187" s="15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D187" s="16"/>
       <c r="E187" s="16"/>
@@ -5898,7 +5898,7 @@
     </row>
     <row r="188" spans="2:12">
       <c r="C188" s="15" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D188" s="16"/>
       <c r="E188" s="16"/>
@@ -5924,7 +5924,7 @@
     </row>
     <row r="190" spans="2:12">
       <c r="C190" s="15" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D190" s="16"/>
       <c r="E190" s="16"/>
@@ -5938,7 +5938,7 @@
     </row>
     <row r="191" spans="2:12">
       <c r="C191" s="15" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D191" s="16"/>
       <c r="E191" s="16"/>
@@ -5952,7 +5952,7 @@
     </row>
     <row r="192" spans="2:12">
       <c r="C192" s="15" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D192" s="16"/>
       <c r="E192" s="16"/>
@@ -5990,47 +5990,47 @@
     </row>
     <row r="196" spans="2:12">
       <c r="C196" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="198" spans="2:12">
       <c r="B198" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="199" spans="2:12">
       <c r="B199" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="201" spans="2:12">
       <c r="B201" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="202" spans="2:12">
       <c r="B202" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="204" spans="2:12">
       <c r="B204" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="205" spans="2:12">
       <c r="B205" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="207" spans="2:12">
       <c r="B207" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="208" spans="2:12">
       <c r="B208" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -6065,72 +6065,72 @@
   <sheetData>
     <row r="3" spans="2:2" ht="19">
       <c r="B3" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -6158,57 +6158,57 @@
   <sheetData>
     <row r="3" spans="2:2">
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -6236,227 +6236,227 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" spans="2:3">
       <c r="B65" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="2:3">
       <c r="B66" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68" spans="2:3">
       <c r="B68" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="69" spans="2:3">
       <c r="B69" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="70" spans="2:3">
       <c r="B70" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71" spans="2:3">
       <c r="B71" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="74" spans="2:3">
       <c r="B74" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="76" spans="2:3">
       <c r="B76" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="77" spans="2:3">
       <c r="B77" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="78" spans="2:3">
       <c r="B78" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="80" spans="2:3">
       <c r="C80" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
   </sheetData>
@@ -6476,303 +6476,305 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D524"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="C24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="C25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="C26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="C27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="C28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="C29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="C30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="C31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="C32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="C33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="C34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="C35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="C36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="C37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="C38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="2:3">
       <c r="B46" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="C52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="C53" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="2:3">
       <c r="C54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="C55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" spans="2:3">
       <c r="C57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="2:3">
       <c r="C59" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="2:3">
       <c r="C60" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="2:3">
       <c r="C61" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62" spans="2:3">
       <c r="C62" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="2:3">
       <c r="C63" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" spans="2:3">
       <c r="B65" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="2:3">
       <c r="B66" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="68" spans="2:3">
       <c r="C68" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="70" spans="2:3">
       <c r="B70" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="71" spans="2:3">
       <c r="B71" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="73" spans="2:3">
       <c r="B73" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="75" spans="2:3">
       <c r="B75" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="77" spans="2:3">
       <c r="C77" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="78" spans="2:3">
       <c r="C78" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="79" spans="2:3">
       <c r="C79" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="80" spans="2:3">
       <c r="C80" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="81" spans="2:3">
       <c r="C81" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="82" spans="2:3">
       <c r="C82" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="83" spans="2:3">
       <c r="C83" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="85" spans="2:3">
       <c r="B85" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="87" spans="2:3">
       <c r="B87" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="89" spans="2:3">
       <c r="B89" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="90" spans="2:3">
@@ -6780,1545 +6782,1545 @@
     </row>
     <row r="91" spans="2:3">
       <c r="B91" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="93" spans="2:3">
       <c r="C93" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="94" spans="2:3">
       <c r="C94" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="95" spans="2:3">
       <c r="C95" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="96" spans="2:3">
       <c r="C96" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="97" spans="2:3">
       <c r="C97" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="99" spans="2:3">
       <c r="B99" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="101" spans="2:3">
       <c r="B101" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="103" spans="2:3">
       <c r="C103" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="104" spans="2:3">
       <c r="C104" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="105" spans="2:3">
       <c r="C105" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="106" spans="2:3">
       <c r="C106" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="107" spans="2:3">
       <c r="C107" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="108" spans="2:3">
       <c r="C108" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="109" spans="2:3">
       <c r="C109" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="111" spans="2:3">
       <c r="B111" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="113" spans="2:3">
       <c r="B113" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="115" spans="2:3">
       <c r="B115" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="117" spans="2:3">
       <c r="B117" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="119" spans="2:3">
       <c r="C119" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="120" spans="2:3">
       <c r="C120" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="121" spans="2:3">
       <c r="C121" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="122" spans="2:3">
       <c r="C122" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="123" spans="2:3">
       <c r="C123" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="124" spans="2:3">
       <c r="C124" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="125" spans="2:3">
       <c r="C125" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="126" spans="2:3">
       <c r="C126" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="127" spans="2:3">
       <c r="C127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="128" spans="2:3">
       <c r="C128" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="129" spans="2:3">
       <c r="C129" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="130" spans="2:3">
       <c r="C130" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="131" spans="2:3">
       <c r="C131" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="132" spans="2:3">
       <c r="C132" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="133" spans="2:3">
       <c r="C133" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="134" spans="2:3">
       <c r="C134" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="135" spans="2:3">
       <c r="C135" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="138" spans="2:3">
       <c r="B138" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="140" spans="2:3">
       <c r="B140" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="141" spans="2:3">
       <c r="B141" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="142" spans="2:3">
       <c r="B142" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="143" spans="2:3">
       <c r="B143" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="145" spans="2:3">
       <c r="B145" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="146" spans="2:3">
       <c r="B146" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="148" spans="2:3">
       <c r="B148" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="150" spans="2:3">
       <c r="C150" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="151" spans="2:3">
       <c r="C151" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="152" spans="2:3">
       <c r="C152" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="153" spans="2:3">
       <c r="C153" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="154" spans="2:3">
       <c r="C154" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="155" spans="2:3">
       <c r="C155" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="156" spans="2:3">
       <c r="C156" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="157" spans="2:3">
       <c r="C157" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="158" spans="2:3">
       <c r="C158" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="160" spans="2:3">
       <c r="B160" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="162" spans="2:3">
       <c r="B162" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="164" spans="2:3">
       <c r="B164" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="166" spans="2:3">
       <c r="B166" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="168" spans="2:3">
       <c r="C168" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="169" spans="2:3">
       <c r="C169" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="170" spans="2:3">
       <c r="C170" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="171" spans="2:3">
       <c r="C171" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="172" spans="2:3">
       <c r="C172" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="173" spans="2:3">
       <c r="C173" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="174" spans="2:3">
       <c r="C174" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="177" spans="2:2">
       <c r="B177" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="178" spans="2:2">
       <c r="B178" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="179" spans="2:2">
       <c r="B179" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="181" spans="2:2">
       <c r="B181" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="198" spans="2:2">
       <c r="B198" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="200" spans="2:2">
       <c r="B200" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="202" spans="2:2">
       <c r="B202" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="204" spans="2:2">
       <c r="B204" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="205" spans="2:2">
       <c r="B205" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="207" spans="2:2">
       <c r="B207" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="209" spans="2:4">
       <c r="C209" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="211" spans="2:4">
       <c r="C211" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="212" spans="2:4">
       <c r="C212" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="213" spans="2:4">
       <c r="D213" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="214" spans="2:4">
       <c r="C214" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="216" spans="2:4">
       <c r="C216" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="218" spans="2:4">
       <c r="C218" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="220" spans="2:4">
       <c r="C220" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="222" spans="2:4">
       <c r="B222" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="223" spans="2:4">
       <c r="B223" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="224" spans="2:4">
       <c r="B224" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="226" spans="2:2">
       <c r="B226" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="229" spans="2:2">
       <c r="B229" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="231" spans="2:2">
       <c r="B231" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="233" spans="2:2">
       <c r="B233" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="234" spans="2:2">
       <c r="B234" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="236" spans="2:2">
       <c r="B236" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="238" spans="2:2">
       <c r="B238" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="239" spans="2:2">
       <c r="B239" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="241" spans="2:3">
       <c r="B241" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="242" spans="2:3">
       <c r="B242" s="22" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="244" spans="2:3">
       <c r="B244" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="246" spans="2:3">
       <c r="B246" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="248" spans="2:3">
       <c r="B248" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="249" spans="2:3">
       <c r="B249" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="250" spans="2:3">
       <c r="C250" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="251" spans="2:3">
       <c r="C251" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="252" spans="2:3">
       <c r="C252" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="253" spans="2:3">
       <c r="C253" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="254" spans="2:3">
       <c r="C254" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="256" spans="2:3">
       <c r="B256" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="258" spans="2:3">
       <c r="B258" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="259" spans="2:3">
       <c r="C259" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="260" spans="2:3">
       <c r="C260" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="261" spans="2:3">
       <c r="C261" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="262" spans="2:3">
       <c r="C262" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="263" spans="2:3">
       <c r="C263" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="265" spans="2:3">
       <c r="B265" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="267" spans="2:3">
       <c r="B267" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="268" spans="2:3">
       <c r="B268" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="269" spans="2:3">
       <c r="B269" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="270" spans="2:3">
       <c r="B270" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="272" spans="2:3">
       <c r="B272" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="273" spans="2:3">
       <c r="B273" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="275" spans="2:3">
       <c r="B275" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="276" spans="2:3">
       <c r="C276" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="277" spans="2:3">
       <c r="C277" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="278" spans="2:3">
       <c r="C278" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="280" spans="2:3">
       <c r="C280" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="281" spans="2:3">
       <c r="C281" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="282" spans="2:3">
       <c r="C282" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="284" spans="2:3">
       <c r="C284" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="286" spans="2:3">
       <c r="C286" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="287" spans="2:3">
       <c r="C287" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="288" spans="2:3">
       <c r="C288" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="289" spans="3:3">
       <c r="C289" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="290" spans="3:3">
       <c r="C290" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="291" spans="3:3">
       <c r="C291" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="292" spans="3:3">
       <c r="C292" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="293" spans="3:3">
       <c r="C293" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="294" spans="3:3">
       <c r="C294" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="295" spans="3:3">
       <c r="C295" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="296" spans="3:3">
       <c r="C296" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="297" spans="3:3">
       <c r="C297" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="298" spans="3:3">
       <c r="C298" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="299" spans="3:3">
       <c r="C299" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="300" spans="3:3">
       <c r="C300" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="301" spans="3:3">
       <c r="C301" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="302" spans="3:3">
       <c r="C302" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="303" spans="3:3">
       <c r="C303" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="304" spans="3:3">
       <c r="C304" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="305" spans="2:3">
       <c r="C305" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="307" spans="2:3">
       <c r="C307" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="308" spans="2:3">
       <c r="C308" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="309" spans="2:3">
       <c r="C309" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="311" spans="2:3">
       <c r="C311" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="313" spans="2:3">
       <c r="C313" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="314" spans="2:3">
       <c r="C314" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="315" spans="2:3">
       <c r="C315" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="318" spans="2:3">
       <c r="B318" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="320" spans="2:3">
       <c r="B320" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="321" spans="2:3">
       <c r="B321" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="323" spans="2:3">
       <c r="B323" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="325" spans="2:3">
       <c r="B325" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="326" spans="2:3">
       <c r="B326" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C326" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="327" spans="2:3">
       <c r="C327" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="328" spans="2:3">
       <c r="C328" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="330" spans="2:3">
       <c r="B330" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="331" spans="2:3">
       <c r="C331" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="332" spans="2:3">
       <c r="C332" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="333" spans="2:3">
       <c r="C333" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="335" spans="2:3">
       <c r="B335" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="336" spans="2:3">
       <c r="B336" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="338" spans="2:2">
       <c r="B338" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="339" spans="2:2">
       <c r="B339" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="342" spans="2:2">
       <c r="B342" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="343" spans="2:2">
       <c r="B343" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="344" spans="2:2">
       <c r="B344" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="345" spans="2:2">
       <c r="B345" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="347" spans="2:2">
       <c r="B347" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="348" spans="2:2">
       <c r="B348" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="349" spans="2:2">
       <c r="B349" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="350" spans="2:2">
       <c r="B350" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="351" spans="2:2">
       <c r="B351" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="353" spans="2:3">
       <c r="B353" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="354" spans="2:3">
       <c r="B354" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="355" spans="2:3">
       <c r="B355" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="357" spans="2:3">
       <c r="B357" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="358" spans="2:3">
       <c r="C358" s="23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="359" spans="2:3">
       <c r="C359" s="23" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="361" spans="2:3">
       <c r="B361" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="364" spans="2:3">
       <c r="B364" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="365" spans="2:3">
       <c r="B365" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="366" spans="2:3">
       <c r="C366" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="367" spans="2:3">
       <c r="C367" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="368" spans="2:3">
       <c r="C368" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="370" spans="2:3">
       <c r="B370" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="371" spans="2:3">
       <c r="B371" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="373" spans="2:3">
       <c r="B373" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="374" spans="2:3">
       <c r="B374" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="375" spans="2:3">
       <c r="C375" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="376" spans="2:3">
       <c r="C376" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="377" spans="2:3">
       <c r="C377" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="378" spans="2:3">
       <c r="C378" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="379" spans="2:3">
       <c r="C379" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="381" spans="2:3">
       <c r="C381" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="382" spans="2:3">
       <c r="C382" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="383" spans="2:3">
       <c r="C383" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="384" spans="2:3">
       <c r="C384" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="385" spans="3:3">
       <c r="C385" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="386" spans="3:3">
       <c r="C386" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="387" spans="3:3">
       <c r="C387" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="388" spans="3:3">
       <c r="C388" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="389" spans="3:3">
       <c r="C389" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="390" spans="3:3">
       <c r="C390" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="392" spans="3:3">
       <c r="C392" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="393" spans="3:3">
       <c r="C393" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="394" spans="3:3">
       <c r="C394" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="395" spans="3:3">
       <c r="C395" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="396" spans="3:3">
       <c r="C396" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="397" spans="3:3">
       <c r="C397" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="398" spans="3:3">
       <c r="C398" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="399" spans="3:3">
       <c r="C399" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="400" spans="3:3">
       <c r="C400" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="402" spans="3:3">
       <c r="C402" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="403" spans="3:3">
       <c r="C403" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="404" spans="3:3">
       <c r="C404" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="405" spans="3:3">
       <c r="C405" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="406" spans="3:3">
       <c r="C406" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="407" spans="3:3">
       <c r="C407" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="408" spans="3:3">
       <c r="C408" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="409" spans="3:3">
       <c r="C409" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="410" spans="3:3">
       <c r="C410" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="411" spans="3:3">
       <c r="C411" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="412" spans="3:3">
       <c r="C412" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="414" spans="3:3">
       <c r="C414" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="417" spans="2:3">
       <c r="B417" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="419" spans="2:3">
       <c r="B419" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="421" spans="2:3">
       <c r="C421" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="422" spans="2:3">
       <c r="C422" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="423" spans="2:3">
       <c r="C423" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="425" spans="2:3">
       <c r="C425" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="426" spans="2:3">
       <c r="C426" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="427" spans="2:3">
       <c r="C427" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="428" spans="2:3">
       <c r="C428" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="429" spans="2:3">
       <c r="C429" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="430" spans="2:3">
       <c r="C430" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="431" spans="2:3">
       <c r="C431" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="432" spans="2:3">
       <c r="C432" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="433" spans="2:3">
       <c r="C433" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="434" spans="2:3">
       <c r="C434" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="435" spans="2:3">
       <c r="C435" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="436" spans="2:3">
       <c r="C436" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="437" spans="2:3">
       <c r="C437" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="438" spans="2:3">
       <c r="C438" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="440" spans="2:3">
       <c r="C440" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="443" spans="2:3">
       <c r="B443" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="445" spans="2:3">
       <c r="C445" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="446" spans="2:3">
       <c r="C446" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="447" spans="2:3">
       <c r="C447" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="449" spans="2:3">
       <c r="C449" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="450" spans="2:3">
       <c r="C450" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="451" spans="2:3">
       <c r="C451" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="452" spans="2:3">
       <c r="C452" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="453" spans="2:3">
       <c r="C453" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="454" spans="2:3">
       <c r="C454" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="455" spans="2:3">
       <c r="C455" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="456" spans="2:3">
       <c r="C456" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="457" spans="2:3">
       <c r="C457" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="458" spans="2:3">
       <c r="C458" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="459" spans="2:3">
       <c r="C459" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="461" spans="2:3">
       <c r="C461" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="464" spans="2:3">
       <c r="B464" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="466" spans="2:3">
       <c r="C466" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="467" spans="2:3">
       <c r="C467" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="468" spans="2:3">
       <c r="C468" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="470" spans="2:3">
       <c r="B470" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="472" spans="2:3">
       <c r="B472" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="473" spans="2:3">
       <c r="B473" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="474" spans="2:3">
       <c r="B474" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="475" spans="2:3">
       <c r="C475" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="476" spans="2:3">
       <c r="C476" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="478" spans="2:3">
       <c r="B478" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="480" spans="2:3">
       <c r="C480" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="481" spans="2:3">
       <c r="C481" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="482" spans="2:3">
       <c r="C482" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="484" spans="2:3">
       <c r="C484" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="485" spans="2:3">
       <c r="C485" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="486" spans="2:3">
       <c r="C486" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="488" spans="2:3">
       <c r="B488" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="490" spans="2:3">
       <c r="C490" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="491" spans="2:3">
       <c r="C491" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="492" spans="2:3">
       <c r="C492" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="493" spans="2:3">
       <c r="C493" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="497" spans="2:3">
       <c r="B497" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="499" spans="2:3">
       <c r="B499" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="500" spans="2:3">
       <c r="B500" s="6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="501" spans="2:3">
       <c r="B501" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="503" spans="2:3">
       <c r="C503" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="504" spans="2:3">
       <c r="C504" s="7" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="506" spans="2:3">
       <c r="B506" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="508" spans="2:3">
       <c r="C508" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="509" spans="2:3">
       <c r="C509" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="511" spans="2:3">
       <c r="B511" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="513" spans="2:2">
       <c r="B513" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="514" spans="2:2">
       <c r="B514" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="515" spans="2:2">
       <c r="B515" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="517" spans="2:2">
       <c r="B517" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="519" spans="2:2">
       <c r="B519" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="520" spans="2:2">
       <c r="B520" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="521" spans="2:2">
       <c r="B521" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="522" spans="2:2">
       <c r="B522" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="523" spans="2:2">
       <c r="B523" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="524" spans="2:2">
       <c r="B524" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
   </sheetData>
@@ -8347,227 +8349,227 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="C39" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="C40" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="C41" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="C42" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="57" spans="2:3">
       <c r="C57" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="58" spans="2:3">
       <c r="C58" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="59" spans="2:3">
       <c r="C59" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="60" spans="2:3">
       <c r="C60" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="64" spans="2:3">
       <c r="B64" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="66" spans="2:3">
       <c r="B66" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="68" spans="2:3">
       <c r="C68" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="69" spans="2:3">
       <c r="C69" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="70" spans="2:3">
       <c r="C70" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="71" spans="2:3">
       <c r="C71" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Docker/Docker_Setup.xlsx
+++ b/Document/Docker/Docker_Setup.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15540" tabRatio="646" activeTab="1"/>
+    <workbookView xWindow="3740" yWindow="2680" windowWidth="25520" windowHeight="15540" tabRatio="646" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="emin镜像说明" sheetId="5" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="Tomcat安装" sheetId="7" r:id="rId5"/>
     <sheet name="PostgreSQL安装" sheetId="8" r:id="rId6"/>
     <sheet name="ZooKeeper安装" sheetId="9" r:id="rId7"/>
+    <sheet name="问题集" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="647">
   <si>
     <t>Docker引擎的下载与安装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3102,6 +3103,42 @@
   <si>
     <t xml:space="preserve">    [dockerrepo]</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 在腾讯云服务器配置docker环境报的异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装docker引擎后,service docker start OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行docker命令,如docker images 出现如下异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannot connect to the Docker daemon. Is 'docker -d' running on this host?</t>
+  </si>
+  <si>
+    <t>执行docker -d 后报出以下异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">WARN[0000] You are running linux kernel version 2.6.32-504.30.3.el6.x86_64, which might be unstable running docker. Please upgrade your kernel to 3.10.0. </t>
+  </si>
+  <si>
+    <t>docker: relocation error: docker: symbol dm_task_get_info_with_deferred_remove, version Base not defined in file libdevmapper.so.1.02 with link time reference</t>
+  </si>
+  <si>
+    <t>一开始觉得跟内核有关系,但是局域网内部的两台机器的Linux内核都不是3.10.0以上的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决办法:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yum upgrade device-mapper-libs</t>
   </si>
 </sst>
 </file>
@@ -5286,7 +5323,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L208"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
@@ -6476,7 +6515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D524"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A210" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -8582,4 +8621,77 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:C19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3">
+      <c r="B3" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="C8" s="2" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="C12" s="2" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="C13" s="2" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="2" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="2" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="C19" s="2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>